--- a/data/trans_orig/P27_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P27_2-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>117352</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>100896</v>
+        <v>101123</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>138444</v>
+        <v>138461</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2516137424540136</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.216330061909447</v>
+        <v>0.2168174395447158</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2968383054419281</v>
+        <v>0.2968741520543373</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -765,19 +765,19 @@
         <v>96584</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>80247</v>
+        <v>79562</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>113907</v>
+        <v>113808</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2157155031955844</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1792278473450915</v>
+        <v>0.1776983197905111</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2544070262002331</v>
+        <v>0.2541851509967777</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>216</v>
@@ -786,19 +786,19 @@
         <v>213936</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>190336</v>
+        <v>189105</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>242437</v>
+        <v>237819</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2340310202318052</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2082149858268689</v>
+        <v>0.2068680576033333</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2652099640089154</v>
+        <v>0.2601579708194356</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>223330</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>202515</v>
+        <v>202812</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>245158</v>
+        <v>246629</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4788401212330857</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4342117677907184</v>
+        <v>0.4348489729981622</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.525642575976961</v>
+        <v>0.5287965898216972</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>253</v>
@@ -836,19 +836,19 @@
         <v>236595</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>217286</v>
+        <v>214778</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>256227</v>
+        <v>256203</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5284251634506468</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4852980310738541</v>
+        <v>0.4796977887490104</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5722709244299655</v>
+        <v>0.5722181650281164</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>483</v>
@@ -857,19 +857,19 @@
         <v>459925</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>431088</v>
+        <v>432877</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>488917</v>
+        <v>490751</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.503126549807243</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4715802217296969</v>
+        <v>0.4735374667698666</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.534841236396439</v>
+        <v>0.536847868343053</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>81028</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>65305</v>
+        <v>65316</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>97857</v>
+        <v>99381</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1737325489492422</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1400209713340751</v>
+        <v>0.1400434065655919</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2098141394536446</v>
+        <v>0.2130819625960738</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>71</v>
@@ -907,19 +907,19 @@
         <v>72367</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>57973</v>
+        <v>57742</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>89270</v>
+        <v>89528</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1616289666004389</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1294803990228008</v>
+        <v>0.1289637506758779</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1993794723284764</v>
+        <v>0.1999567700860691</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>150</v>
@@ -928,19 +928,19 @@
         <v>153396</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>132874</v>
+        <v>131199</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>178165</v>
+        <v>176498</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1678042936718566</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.145355446078567</v>
+        <v>0.1435227481938545</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1948999262046694</v>
+        <v>0.1930765115603361</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>44687</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33334</v>
+        <v>33310</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58497</v>
+        <v>60249</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09581358736365851</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07147230644656302</v>
+        <v>0.07142021536037606</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1254230710828265</v>
+        <v>0.1291806517159471</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -978,19 +978,19 @@
         <v>42190</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31245</v>
+        <v>31787</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54772</v>
+        <v>54734</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09423036675332984</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06978315740812345</v>
+        <v>0.07099533034904852</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1223315063883612</v>
+        <v>0.1222454131435799</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>90</v>
@@ -999,19 +999,19 @@
         <v>86878</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70984</v>
+        <v>70890</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107583</v>
+        <v>103929</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09503813628909508</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07765130073545386</v>
+        <v>0.07754833698320185</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1176881793340901</v>
+        <v>0.1136914975815551</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>138625</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>118934</v>
+        <v>119495</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>160947</v>
+        <v>162527</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1958359176976577</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1680189715418619</v>
+        <v>0.1688107088941576</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2273700296261089</v>
+        <v>0.229602672609207</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>76</v>
@@ -1124,19 +1124,19 @@
         <v>77969</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>62002</v>
+        <v>61984</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>94206</v>
+        <v>94686</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1309457738405903</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1041285489123484</v>
+        <v>0.1040986629278489</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1582146874863588</v>
+        <v>0.1590198767480406</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>210</v>
@@ -1145,19 +1145,19 @@
         <v>216594</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>191247</v>
+        <v>191186</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>243153</v>
+        <v>248108</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1661897552783753</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1467407021638852</v>
+        <v>0.1466943931602873</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1865679018988075</v>
+        <v>0.1903699623014978</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>371422</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>347023</v>
+        <v>342543</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>399047</v>
+        <v>399053</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5247087318381217</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4902403171190041</v>
+        <v>0.4839114762796756</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5637349176350709</v>
+        <v>0.5637437929641169</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>262</v>
@@ -1195,19 +1195,19 @@
         <v>275859</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>252262</v>
+        <v>251374</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>300793</v>
+        <v>302648</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4632917012603315</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4236606102028475</v>
+        <v>0.4221704517266389</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5051669996101066</v>
+        <v>0.5082821493261646</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>621</v>
@@ -1216,19 +1216,19 @@
         <v>647281</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>612778</v>
+        <v>609490</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>683080</v>
+        <v>686201</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4966493201063523</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4701759944665561</v>
+        <v>0.4676525761915085</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5241169811051146</v>
+        <v>0.5265119764621956</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>121764</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>101214</v>
+        <v>101069</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>142249</v>
+        <v>142555</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1720162424754549</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1429847290542422</v>
+        <v>0.1427802430907703</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2009560176088976</v>
+        <v>0.2013874134832114</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>146</v>
@@ -1266,19 +1266,19 @@
         <v>157954</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>138494</v>
+        <v>137214</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>180994</v>
+        <v>180813</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2652759416166451</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2325940560821133</v>
+        <v>0.2304447898908301</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3039697586311091</v>
+        <v>0.3036661162100109</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>257</v>
@@ -1287,19 +1287,19 @@
         <v>279718</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>249703</v>
+        <v>248310</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>308356</v>
+        <v>309348</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2146235172258871</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1915931301978499</v>
+        <v>0.1905242905599855</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2365974065292337</v>
+        <v>0.237358587445635</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>76052</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>60193</v>
+        <v>59763</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>92847</v>
+        <v>94970</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1074391079887656</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08503514327691351</v>
+        <v>0.0844275088663403</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1311650702558134</v>
+        <v>0.13416374532082</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>78</v>
@@ -1337,19 +1337,19 @@
         <v>83650</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>64730</v>
+        <v>67553</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>101065</v>
+        <v>103041</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.140486583282433</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1087113933007236</v>
+        <v>0.1134522344772756</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1697338803112382</v>
+        <v>0.1730523167265179</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>149</v>
@@ -1358,19 +1358,19 @@
         <v>159703</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>138499</v>
+        <v>136693</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>187104</v>
+        <v>183468</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1225374073893853</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1062684515504241</v>
+        <v>0.1048821721308439</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1435618070302953</v>
+        <v>0.1407723740939477</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>82542</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65786</v>
+        <v>65953</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101117</v>
+        <v>101518</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1367694103321313</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1090047804071634</v>
+        <v>0.1092812559140027</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1675466699544286</v>
+        <v>0.1682121144560914</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -1483,19 +1483,19 @@
         <v>49244</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37719</v>
+        <v>37578</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>64525</v>
+        <v>65580</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07633550624608156</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05846896743758107</v>
+        <v>0.05825118407535149</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1000220454602312</v>
+        <v>0.101658210075422</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>126</v>
@@ -1504,19 +1504,19 @@
         <v>131787</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>113071</v>
+        <v>111347</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154595</v>
+        <v>154756</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1055458928599271</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0905572222759083</v>
+        <v>0.08917597368887178</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1238124615730381</v>
+        <v>0.1239416143632933</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>272663</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>246486</v>
+        <v>248827</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>298088</v>
+        <v>298406</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4517925708244482</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4084186076470257</v>
+        <v>0.4122969271286678</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4939219151052053</v>
+        <v>0.4944485030689734</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>273</v>
@@ -1554,19 +1554,19 @@
         <v>283008</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>257441</v>
+        <v>257706</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>311495</v>
+        <v>307894</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4387000420500465</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.399067172900234</v>
+        <v>0.3994784394727448</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4828584465820631</v>
+        <v>0.4772761259669167</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>538</v>
@@ -1575,19 +1575,19 @@
         <v>555671</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>520461</v>
+        <v>520760</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>595135</v>
+        <v>590537</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4450282419741923</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.4168292993050409</v>
+        <v>0.4170687417048796</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4766348384845164</v>
+        <v>0.4729524800236855</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>166567</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>145086</v>
+        <v>143644</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>190479</v>
+        <v>190601</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.275994972987179</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2404028300675806</v>
+        <v>0.238013255176153</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3156168664592032</v>
+        <v>0.3158188143016921</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>193</v>
@@ -1625,19 +1625,19 @@
         <v>204699</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>179621</v>
+        <v>181456</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>226722</v>
+        <v>228948</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3173099489285104</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2784370081858643</v>
+        <v>0.2812810935749303</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3514487018642348</v>
+        <v>0.3548990961238235</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>349</v>
@@ -1646,19 +1646,19 @@
         <v>371265</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>338733</v>
+        <v>337861</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>406173</v>
+        <v>404043</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2973405883776902</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2712858761804419</v>
+        <v>0.2705874025093414</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3252974958490292</v>
+        <v>0.3235917805360983</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>81742</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>64699</v>
+        <v>64138</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>101626</v>
+        <v>100973</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1354430458562415</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1072046981670825</v>
+        <v>0.1062737721543673</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1683911702320545</v>
+        <v>0.1673080704938041</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>103</v>
@@ -1696,19 +1696,19 @@
         <v>108155</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>90871</v>
+        <v>89559</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>129638</v>
+        <v>126879</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1676545027753615</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1408618747416729</v>
+        <v>0.1388289256682901</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2009555420350132</v>
+        <v>0.1966792577981251</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>181</v>
@@ -1717,19 +1717,19 @@
         <v>189897</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>167503</v>
+        <v>166480</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>218879</v>
+        <v>217821</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1520852767881904</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.134150262895804</v>
+        <v>0.1333312266604974</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1752966168409748</v>
+        <v>0.1744492757515265</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>60047</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>46049</v>
+        <v>44963</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78206</v>
+        <v>76276</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1192952585391172</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09148427595096471</v>
+        <v>0.08932673396434856</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1553706325564262</v>
+        <v>0.1515364565843852</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -1842,19 +1842,19 @@
         <v>25774</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16456</v>
+        <v>17205</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36903</v>
+        <v>37497</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05314891509546135</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03393521403016152</v>
+        <v>0.03547977254868651</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0760991797290051</v>
+        <v>0.07732390235000511</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>79</v>
@@ -1863,19 +1863,19 @@
         <v>85821</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>68503</v>
+        <v>69857</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>104620</v>
+        <v>105160</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08683821651028609</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06931468987097729</v>
+        <v>0.07068484910594285</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1058596905016937</v>
+        <v>0.1064067532844119</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>215877</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>192769</v>
+        <v>191896</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>237937</v>
+        <v>237234</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4288818794812729</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3829727834017151</v>
+        <v>0.3812389283629566</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.47270681289453</v>
+        <v>0.4713112430168807</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>168</v>
@@ -1913,19 +1913,19 @@
         <v>171933</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>151832</v>
+        <v>152864</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>192036</v>
+        <v>194595</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3545464873657421</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.313094988902677</v>
+        <v>0.3152228308124885</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3960006574173724</v>
+        <v>0.4012781556839156</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>369</v>
@@ -1934,19 +1934,19 @@
         <v>387810</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>358594</v>
+        <v>353788</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>420768</v>
+        <v>419450</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.392406591196009</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.362843821382883</v>
+        <v>0.3579808945853463</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4257551900758033</v>
+        <v>0.4244211490941966</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>128460</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>109096</v>
+        <v>109418</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>148362</v>
+        <v>149057</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2552114030930719</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2167412212835573</v>
+        <v>0.2173799216138673</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2947505990382129</v>
+        <v>0.2961295327703406</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>145</v>
@@ -1984,19 +1984,19 @@
         <v>149008</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>128932</v>
+        <v>128998</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>169868</v>
+        <v>168740</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3072730539498248</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2658729072059341</v>
+        <v>0.2660087252326422</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.350288898226484</v>
+        <v>0.3479615012908497</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>266</v>
@@ -2005,19 +2005,19 @@
         <v>277469</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>249004</v>
+        <v>250407</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>307307</v>
+        <v>305566</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2807572927368029</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2519547525473294</v>
+        <v>0.253374648076454</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3109490542475568</v>
+        <v>0.3091871829647013</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>98964</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>81658</v>
+        <v>82521</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>118978</v>
+        <v>119068</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.196611458886538</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1622287133697697</v>
+        <v>0.1639430958939049</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2363718578170642</v>
+        <v>0.2365506107141623</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>136</v>
@@ -2055,19 +2055,19 @@
         <v>138223</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>118068</v>
+        <v>118662</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>157503</v>
+        <v>157346</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2850315435889716</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2434710115375545</v>
+        <v>0.2446950943558415</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3247897806177872</v>
+        <v>0.324465676846164</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>229</v>
@@ -2076,19 +2076,19 @@
         <v>237187</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>212291</v>
+        <v>210497</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>265011</v>
+        <v>265303</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.239997899556902</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2148073429104361</v>
+        <v>0.2129919222610018</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2681520586861873</v>
+        <v>0.2684469050036729</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>22340</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15017</v>
+        <v>14475</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>33171</v>
+        <v>33398</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06221754585533595</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04182373257649406</v>
+        <v>0.04031296796293662</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09238191255921457</v>
+        <v>0.09301509793723825</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -2201,19 +2201,19 @@
         <v>13919</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7897</v>
+        <v>7331</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22795</v>
+        <v>22948</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03615366097361528</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02051144785445696</v>
+        <v>0.01904238542469864</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05920927202525611</v>
+        <v>0.05960656583725366</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>36</v>
@@ -2222,19 +2222,19 @@
         <v>36259</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>25064</v>
+        <v>25369</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>48838</v>
+        <v>48753</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04873151896569333</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03368654802390023</v>
+        <v>0.03409593248242822</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06563816493143754</v>
+        <v>0.0655241274221245</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>120409</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>104233</v>
+        <v>102981</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>138417</v>
+        <v>139102</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3353429799108436</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2902936940611118</v>
+        <v>0.2868066041505426</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3854961212974516</v>
+        <v>0.387404441286071</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>73</v>
@@ -2272,19 +2272,19 @@
         <v>75571</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>60401</v>
+        <v>59433</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>91515</v>
+        <v>91702</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1962964545294165</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1568914043564953</v>
+        <v>0.1543777890465972</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2377090178066692</v>
+        <v>0.2381961196856641</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>195</v>
@@ -2293,19 +2293,19 @@
         <v>195980</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>172186</v>
+        <v>173481</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>221402</v>
+        <v>222943</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2633972516084438</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2314185557324722</v>
+        <v>0.2331580200969963</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2975643177099287</v>
+        <v>0.2996359828028625</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>123133</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>106450</v>
+        <v>103771</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>140718</v>
+        <v>141629</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3429307332796694</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2964691110817665</v>
+        <v>0.289007849021942</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.391905504262494</v>
+        <v>0.3944423819406226</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>138</v>
@@ -2343,19 +2343,19 @@
         <v>140401</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>124530</v>
+        <v>120805</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>159965</v>
+        <v>159416</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3646923392148743</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3234663153717581</v>
+        <v>0.3137897651962001</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4155090479857547</v>
+        <v>0.4140824281237658</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>260</v>
@@ -2364,19 +2364,19 @@
         <v>263535</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>237089</v>
+        <v>238500</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>289714</v>
+        <v>292739</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3541906664836333</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3186474456096246</v>
+        <v>0.320543939605611</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3893755446915409</v>
+        <v>0.3934418032492277</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>93179</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>78302</v>
+        <v>77718</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>109106</v>
+        <v>110008</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2595087409541511</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2180752426083155</v>
+        <v>0.216448177511979</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3038657542876084</v>
+        <v>0.3063758205687844</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>153</v>
@@ -2414,19 +2414,19 @@
         <v>155095</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>135838</v>
+        <v>137044</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>173671</v>
+        <v>175314</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4028575452820939</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.352838897528623</v>
+        <v>0.3559709917204937</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4511100994428741</v>
+        <v>0.4553785405880613</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>250</v>
@@ -2435,19 +2435,19 @@
         <v>248274</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>222560</v>
+        <v>221910</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>274488</v>
+        <v>274885</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3336805629422295</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2991213966054145</v>
+        <v>0.2982479187255984</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3689118113014836</v>
+        <v>0.3694459571246884</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>5430</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1868</v>
+        <v>1926</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11643</v>
+        <v>11111</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01958667126080485</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006739882758312667</v>
+        <v>0.00694792205942141</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04199696419787629</v>
+        <v>0.04007979695605908</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3678</v>
+        <v>3711</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.002245286195866076</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01123671933219335</v>
+        <v>0.01133870244794627</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -2581,19 +2581,19 @@
         <v>6165</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2531</v>
+        <v>2613</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11726</v>
+        <v>11824</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01019797478920662</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004187289970087743</v>
+        <v>0.004322568459445514</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01939842235286201</v>
+        <v>0.01955955714564016</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>53989</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>42789</v>
+        <v>40925</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>67749</v>
+        <v>66819</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1947470802169071</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1543490257656171</v>
+        <v>0.1476243812965564</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2443849868732666</v>
+        <v>0.2410277357341748</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>25</v>
@@ -2631,19 +2631,19 @@
         <v>23180</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>14916</v>
+        <v>14895</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>33126</v>
+        <v>34014</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07082609225116475</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04557591983621734</v>
+        <v>0.04551263653590109</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1012149543394015</v>
+        <v>0.1039289407690107</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>81</v>
@@ -2652,19 +2652,19 @@
         <v>77169</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>62210</v>
+        <v>63643</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>93756</v>
+        <v>96219</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1276557528451831</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1029105899082063</v>
+        <v>0.1052813268976685</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1550949646850313</v>
+        <v>0.1591700198673021</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>109335</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>94808</v>
+        <v>95046</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>124573</v>
+        <v>126378</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3943931993216121</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3419918882725127</v>
+        <v>0.3428486792699832</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.44935760227981</v>
+        <v>0.4558700008351201</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>116</v>
@@ -2702,19 +2702,19 @@
         <v>106877</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>91068</v>
+        <v>92212</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>125327</v>
+        <v>123734</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3265600855907377</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2782547327936944</v>
+        <v>0.2817510564512374</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3829314834259354</v>
+        <v>0.3780660518020506</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>229</v>
@@ -2723,19 +2723,19 @@
         <v>216212</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>192493</v>
+        <v>191904</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>238759</v>
+        <v>237405</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.357668075396522</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3184306507433637</v>
+        <v>0.3174555193010393</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3949656657749576</v>
+        <v>0.3927261253479064</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>108470</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>92211</v>
+        <v>91655</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>124061</v>
+        <v>123313</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.391273049200676</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3326219523850458</v>
+        <v>0.3306163379877616</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4475110464403543</v>
+        <v>0.4448146063046344</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>212</v>
@@ -2773,19 +2773,19 @@
         <v>196490</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>177863</v>
+        <v>180375</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>213092</v>
+        <v>214675</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6003685359622315</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5434560047767311</v>
+        <v>0.5511299515893353</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6510966793304704</v>
+        <v>0.6559315599188332</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>324</v>
@@ -2794,19 +2794,19 @@
         <v>304960</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>279779</v>
+        <v>282449</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>328258</v>
+        <v>330223</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5044781969690882</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4628221345030774</v>
+        <v>0.4672387874584127</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5430186076121017</v>
+        <v>0.5462698406902253</v>
       </c>
     </row>
     <row r="33">
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10489</v>
+        <v>9949</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01396227049016295</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05263412318456274</v>
+        <v>0.04992516311589507</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6535</v>
+        <v>7520</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.004105993364643941</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02032696999253579</v>
+        <v>0.02339245968105602</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -2940,19 +2940,19 @@
         <v>4102</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>13170</v>
+        <v>12773</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.007877780118191242</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001821056341419612</v>
+        <v>0.00181924126563688</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02528903701799247</v>
+        <v>0.02452658554185653</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>18640</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>11404</v>
+        <v>11401</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>27190</v>
+        <v>27254</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0935331097774887</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05722549503678351</v>
+        <v>0.05720845655730897</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1364376870217584</v>
+        <v>0.1367599096663466</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>11</v>
@@ -2990,19 +2990,19 @@
         <v>13582</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>6525</v>
+        <v>7261</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>22763</v>
+        <v>23144</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04224938620693372</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0202954931655074</v>
+        <v>0.02258587514803881</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07080738317429087</v>
+        <v>0.07199271873375299</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>31</v>
@@ -3011,19 +3011,19 @@
         <v>32222</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>22291</v>
+        <v>22606</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>45404</v>
+        <v>45247</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06187457194112798</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04280355672176761</v>
+        <v>0.04340917651292554</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0871880947747736</v>
+        <v>0.0868860966822117</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>66532</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>54590</v>
+        <v>54110</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>79664</v>
+        <v>79590</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3338541799543233</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2739303521006206</v>
+        <v>0.2715203715384723</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3997491353732177</v>
+        <v>0.3993761162019202</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>63</v>
@@ -3061,19 +3061,19 @@
         <v>72076</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>58424</v>
+        <v>57819</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>87168</v>
+        <v>89739</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2242032365262644</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1817351925385949</v>
+        <v>0.1798545716587081</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2711486996296879</v>
+        <v>0.279146365028251</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>131</v>
@@ -3082,19 +3082,19 @@
         <v>138609</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>119024</v>
+        <v>119277</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>158192</v>
+        <v>160163</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2661643107400882</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2285562072899542</v>
+        <v>0.229043181058873</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3037688350649007</v>
+        <v>0.3075554237371357</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>111331</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>97618</v>
+        <v>97584</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>125288</v>
+        <v>123947</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5586504397780251</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4898395626603987</v>
+        <v>0.489671967501043</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.628686061247599</v>
+        <v>0.6219609906015489</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>204</v>
@@ -3132,19 +3132,19 @@
         <v>234499</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>218220</v>
+        <v>217406</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>249774</v>
+        <v>250599</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.729441383902158</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6788010209763725</v>
+        <v>0.6762687436757809</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7769554385127129</v>
+        <v>0.7795200971643669</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>324</v>
@@ -3153,19 +3153,19 @@
         <v>345830</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>324767</v>
+        <v>324726</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>367570</v>
+        <v>365327</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6640833372005925</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6236376964827385</v>
+        <v>0.6235572489020329</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7058301490895112</v>
+        <v>0.7015231454440647</v>
       </c>
     </row>
     <row r="38">
@@ -3257,19 +3257,19 @@
         <v>429119</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>390381</v>
+        <v>392619</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>468220</v>
+        <v>474071</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1376839542377182</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1252548602697824</v>
+        <v>0.125972883425424</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1502297503167628</v>
+        <v>0.1521070672093554</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>261</v>
@@ -3278,19 +3278,19 @@
         <v>265545</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>232780</v>
+        <v>236476</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>295707</v>
+        <v>301401</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.08280274663464207</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.07258581763265444</v>
+        <v>0.07373828626860231</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.09220784507475133</v>
+        <v>0.0939832598838745</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>677</v>
@@ -3299,19 +3299,19 @@
         <v>694664</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>645910</v>
+        <v>645080</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>749929</v>
+        <v>747796</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1098516437307737</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1021418383112444</v>
+        <v>0.1020106355604907</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1185910673054962</v>
+        <v>0.1182537735904985</v>
       </c>
     </row>
     <row r="40">
@@ -3328,19 +3328,19 @@
         <v>1276329</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1225982</v>
+        <v>1220074</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1328948</v>
+        <v>1329913</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.4095138078012478</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.393359882628547</v>
+        <v>0.3914642412796034</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4263966993564735</v>
+        <v>0.4267064656211442</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1065</v>
@@ -3349,19 +3349,19 @@
         <v>1079730</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1020830</v>
+        <v>1030885</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1135605</v>
+        <v>1136694</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3366831336601537</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3183169560496319</v>
+        <v>0.3214524154223587</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3541062018654114</v>
+        <v>0.3544457199224481</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2318</v>
@@ -3370,19 +3370,19 @@
         <v>2356058</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2283625</v>
+        <v>2282901</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2430546</v>
+        <v>2443280</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3725786522961891</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3611243967764149</v>
+        <v>0.3610098147948082</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3843578573616537</v>
+        <v>0.3863716751775825</v>
       </c>
     </row>
     <row r="41">
@@ -3399,19 +3399,19 @@
         <v>796820</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>748286</v>
+        <v>746964</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>848781</v>
+        <v>848402</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2556619691417693</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2400898465537467</v>
+        <v>0.2396654761512273</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2723337404975711</v>
+        <v>0.272212271879213</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>872</v>
@@ -3420,19 +3420,19 @@
         <v>903384</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>855645</v>
+        <v>856533</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>956092</v>
+        <v>956624</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2816946162502016</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2668087853865784</v>
+        <v>0.2670855996428732</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2981303093425373</v>
+        <v>0.2982962185482599</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1642</v>
@@ -3441,19 +3441,19 @@
         <v>1700203</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1621314</v>
+        <v>1622637</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1771470</v>
+        <v>1769565</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2688640969608188</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2563888524347191</v>
+        <v>0.2565979669626149</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2801339262331957</v>
+        <v>0.2798327315451854</v>
       </c>
     </row>
     <row r="42">
@@ -3470,19 +3470,19 @@
         <v>614426</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>565610</v>
+        <v>567533</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>654563</v>
+        <v>656866</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1971402688192647</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1814777399542694</v>
+        <v>0.1820947690344366</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2100185065230755</v>
+        <v>0.2107574722712587</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>931</v>
@@ -3491,19 +3491,19 @@
         <v>958302</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>902771</v>
+        <v>909300</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1006878</v>
+        <v>1009750</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2988195034550026</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2815034453052454</v>
+        <v>0.2835394056435485</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3139665226908773</v>
+        <v>0.3148617988981764</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1547</v>
@@ -3512,19 +3512,19 @@
         <v>1572728</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1498713</v>
+        <v>1512541</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1635137</v>
+        <v>1643331</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2487056070122184</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2370011280344644</v>
+        <v>0.2391877818891083</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2585748049564318</v>
+        <v>0.2598705309245435</v>
       </c>
     </row>
     <row r="43">
@@ -3859,19 +3859,19 @@
         <v>20963</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13807</v>
+        <v>12582</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32307</v>
+        <v>30661</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04724823183492404</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03111966107278428</v>
+        <v>0.02835965001282889</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07281747236785557</v>
+        <v>0.06910597420661882</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -3880,19 +3880,19 @@
         <v>17338</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10734</v>
+        <v>10275</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26465</v>
+        <v>27951</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04146482935812001</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02567123639674771</v>
+        <v>0.02457462091427607</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06329270333272499</v>
+        <v>0.06684816456776867</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -3901,19 +3901,19 @@
         <v>38301</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27099</v>
+        <v>27798</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50628</v>
+        <v>51889</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04444223329851449</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03144459644506483</v>
+        <v>0.03225483013907798</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05874614780105176</v>
+        <v>0.06020890620871321</v>
       </c>
     </row>
     <row r="5">
@@ -3930,19 +3930,19 @@
         <v>43641</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31808</v>
+        <v>32262</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>56982</v>
+        <v>56786</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0983632887468477</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07169166613055253</v>
+        <v>0.07271575824764072</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1284325709865492</v>
+        <v>0.1279894444097503</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>45</v>
@@ -3951,19 +3951,19 @@
         <v>45818</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35027</v>
+        <v>34574</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59894</v>
+        <v>59749</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1095772124815219</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0837708556029409</v>
+        <v>0.08268681610788349</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1432403869032492</v>
+        <v>0.1428953248894698</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>88</v>
@@ -3975,16 +3975,16 @@
         <v>71789</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>108624</v>
+        <v>108185</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1038040744630603</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08329963522613032</v>
+        <v>0.08329983738962699</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1260411418407305</v>
+        <v>0.1255324038188022</v>
       </c>
     </row>
     <row r="6">
@@ -4001,19 +4001,19 @@
         <v>58669</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46760</v>
+        <v>46248</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>73986</v>
+        <v>73853</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1322338755273562</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1053924307341077</v>
+        <v>0.1042393322988328</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1667570970237208</v>
+        <v>0.166457041940086</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>54</v>
@@ -4022,19 +4022,19 @@
         <v>54266</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>41906</v>
+        <v>41726</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>67839</v>
+        <v>68682</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1297811205731945</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1002220063197354</v>
+        <v>0.09979027421314152</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1622427435299365</v>
+        <v>0.1642575478617235</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>113</v>
@@ -4043,19 +4043,19 @@
         <v>112935</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>93557</v>
+        <v>93364</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>134399</v>
+        <v>132927</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1310438447731155</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1085583249999741</v>
+        <v>0.1083348905409327</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1559498048255159</v>
+        <v>0.1542414344115591</v>
       </c>
     </row>
     <row r="7">
@@ -4072,19 +4072,19 @@
         <v>320403</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>300752</v>
+        <v>301980</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>337799</v>
+        <v>340519</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.722154603890872</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6778648427268354</v>
+        <v>0.6806328955148003</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7613643087653972</v>
+        <v>0.7674949236161231</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>293</v>
@@ -4093,19 +4093,19 @@
         <v>300712</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>283177</v>
+        <v>280444</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>317912</v>
+        <v>319634</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7191768375871636</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6772390237164603</v>
+        <v>0.670703512269367</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7603122957834052</v>
+        <v>0.7644296875993384</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>605</v>
@@ -4114,19 +4114,19 @@
         <v>621116</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>595872</v>
+        <v>594994</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>645967</v>
+        <v>646980</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7207098474653097</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6914188995297621</v>
+        <v>0.6903997855866488</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.749546158771593</v>
+        <v>0.7507209738934268</v>
       </c>
     </row>
     <row r="8">
@@ -4218,19 +4218,19 @@
         <v>25941</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17251</v>
+        <v>17225</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>38449</v>
+        <v>38113</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03876215216344116</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02577726178013664</v>
+        <v>0.02573817142957077</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05745209722477927</v>
+        <v>0.05695101899863405</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -4239,19 +4239,19 @@
         <v>12949</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6859</v>
+        <v>6996</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21255</v>
+        <v>22707</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02201664064700444</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01166169653182808</v>
+        <v>0.01189513760945895</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03613853906672285</v>
+        <v>0.03860780001497562</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>38</v>
@@ -4260,19 +4260,19 @@
         <v>38890</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>28231</v>
+        <v>28720</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>53170</v>
+        <v>53839</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0309292497662848</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02245247215888663</v>
+        <v>0.02284066783997052</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04228596721609733</v>
+        <v>0.04281857000357345</v>
       </c>
     </row>
     <row r="10">
@@ -4289,19 +4289,19 @@
         <v>55775</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42255</v>
+        <v>42214</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71005</v>
+        <v>70614</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08334286741653786</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06313960556301167</v>
+        <v>0.06307803148259522</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1060994463530186</v>
+        <v>0.1055150157412266</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -4310,19 +4310,19 @@
         <v>36528</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26204</v>
+        <v>26617</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49573</v>
+        <v>50331</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06210591176568566</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04455334068857962</v>
+        <v>0.04525493171559863</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08428465117765119</v>
+        <v>0.08557458359430657</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>90</v>
@@ -4331,19 +4331,19 @@
         <v>92303</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74805</v>
+        <v>73718</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>113187</v>
+        <v>113396</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07340904122898999</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05949236374956787</v>
+        <v>0.05862803498452011</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09001740440627759</v>
+        <v>0.09018423572839988</v>
       </c>
     </row>
     <row r="11">
@@ -4360,19 +4360,19 @@
         <v>96205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79536</v>
+        <v>77118</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>114738</v>
+        <v>113186</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1437553238080174</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.118847492205185</v>
+        <v>0.1152340713141129</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1714481541697254</v>
+        <v>0.1691285407966646</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>85</v>
@@ -4381,19 +4381,19 @@
         <v>90573</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>72979</v>
+        <v>73596</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>108628</v>
+        <v>108882</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1539947888231773</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1240811709074173</v>
+        <v>0.1251292566399846</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.184692360914693</v>
+        <v>0.185125008752538</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>183</v>
@@ -4402,19 +4402,19 @@
         <v>186778</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>163883</v>
+        <v>162333</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>215951</v>
+        <v>212538</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1485449493732992</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1303363440408902</v>
+        <v>0.129103579923171</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1717464891615138</v>
+        <v>0.1690317256208562</v>
       </c>
     </row>
     <row r="12">
@@ -4431,19 +4431,19 @@
         <v>491308</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>466936</v>
+        <v>467126</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>513656</v>
+        <v>513354</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7341396566120035</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6977223583083219</v>
+        <v>0.6980067871574801</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7675341310818193</v>
+        <v>0.767082614121109</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>417</v>
@@ -4452,19 +4452,19 @@
         <v>448106</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>426541</v>
+        <v>425407</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>469460</v>
+        <v>469109</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7618826587641326</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7252168799196065</v>
+        <v>0.7232901227804649</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7981900501249628</v>
+        <v>0.7975928616241423</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>888</v>
@@ -4473,19 +4473,19 @@
         <v>939413</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>906048</v>
+        <v>910662</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>968166</v>
+        <v>971258</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7471167596314261</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7205814699034675</v>
+        <v>0.7242511166810695</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7699837673161072</v>
+        <v>0.7724427115558951</v>
       </c>
     </row>
     <row r="13">
@@ -4577,19 +4577,19 @@
         <v>19243</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11739</v>
+        <v>11492</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28174</v>
+        <v>28288</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02921556900710465</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01782171788632606</v>
+        <v>0.01744695291830139</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04277513785105064</v>
+        <v>0.04294711497752213</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -4598,19 +4598,19 @@
         <v>13897</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7785</v>
+        <v>8075</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21870</v>
+        <v>22778</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02019968459007525</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01131584526838661</v>
+        <v>0.01173747612530428</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03178845373763193</v>
+        <v>0.03310758181982158</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -4619,19 +4619,19 @@
         <v>33140</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22646</v>
+        <v>23528</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44420</v>
+        <v>46256</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02460943892925395</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0168160957739493</v>
+        <v>0.01747167909991948</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03298569796643356</v>
+        <v>0.0343490335524635</v>
       </c>
     </row>
     <row r="15">
@@ -4648,19 +4648,19 @@
         <v>47106</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>35399</v>
+        <v>35228</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>62702</v>
+        <v>63303</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.07151788599379164</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.053744478318631</v>
+        <v>0.05348400374566157</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09519612731768673</v>
+        <v>0.09610899118016417</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>43</v>
@@ -4669,19 +4669,19 @@
         <v>43537</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>31790</v>
+        <v>32396</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>57334</v>
+        <v>58106</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06328172694690787</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04620684052181349</v>
+        <v>0.04708734096358957</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08333527807053</v>
+        <v>0.08445696352542292</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>87</v>
@@ -4690,19 +4690,19 @@
         <v>90644</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>73102</v>
+        <v>73668</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>110431</v>
+        <v>110833</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06731011023302903</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05428423719769028</v>
+        <v>0.05470426583699689</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08200360798572688</v>
+        <v>0.08230246410781314</v>
       </c>
     </row>
     <row r="16">
@@ -4719,19 +4719,19 @@
         <v>101709</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>84391</v>
+        <v>83503</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121345</v>
+        <v>121566</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1544167411831787</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1281247539878722</v>
+        <v>0.1267762836993334</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1842286048925217</v>
+        <v>0.1845650239039154</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>57</v>
@@ -4740,19 +4740,19 @@
         <v>59326</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44569</v>
+        <v>45370</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>76575</v>
+        <v>75778</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08622992854517572</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06478141585649855</v>
+        <v>0.06594594334765269</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1113019828786179</v>
+        <v>0.1101437015776558</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>160</v>
@@ -4761,19 +4761,19 @@
         <v>161034</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>137742</v>
+        <v>137718</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>187873</v>
+        <v>185632</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1195807435065182</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1022843487503784</v>
+        <v>0.1022666617495557</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1395105774709242</v>
+        <v>0.1378467633599982</v>
       </c>
     </row>
     <row r="17">
@@ -4790,19 +4790,19 @@
         <v>490605</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>469139</v>
+        <v>467568</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>512166</v>
+        <v>512951</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.744849803815925</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7122599337802361</v>
+        <v>0.7098739222846291</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7775839914137551</v>
+        <v>0.7787765223769835</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>530</v>
@@ -4811,19 +4811,19 @@
         <v>571234</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>552048</v>
+        <v>551175</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>589768</v>
+        <v>590894</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8302886599178412</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8024028709562876</v>
+        <v>0.8011332115088196</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8572284746382545</v>
+        <v>0.8588656266361017</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>991</v>
@@ -4832,19 +4832,19 @@
         <v>1061839</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1032039</v>
+        <v>1031035</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1090043</v>
+        <v>1087342</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7884997073311989</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7663711684121967</v>
+        <v>0.7656256162475585</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8094438204656212</v>
+        <v>0.8074382677634058</v>
       </c>
     </row>
     <row r="18">
@@ -4936,19 +4936,19 @@
         <v>11926</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5878</v>
+        <v>6340</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19696</v>
+        <v>21981</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01992774773633769</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009823070844915566</v>
+        <v>0.01059439732885057</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03291182480857117</v>
+        <v>0.03673135627464953</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -4957,19 +4957,19 @@
         <v>13090</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7160</v>
+        <v>6790</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22725</v>
+        <v>22182</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0219829320670928</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01202452266572655</v>
+        <v>0.01140232118461081</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.038164114230784</v>
+        <v>0.03725234336325546</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -4978,19 +4978,19 @@
         <v>25015</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16455</v>
+        <v>16842</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36573</v>
+        <v>39000</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02095277217346688</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01378286767482478</v>
+        <v>0.01410640640237215</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0306334688825125</v>
+        <v>0.03266603613134955</v>
       </c>
     </row>
     <row r="20">
@@ -5007,19 +5007,19 @@
         <v>36760</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26165</v>
+        <v>24571</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>52874</v>
+        <v>50228</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06142690157183297</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0437215533997444</v>
+        <v>0.04105826341232154</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08835299932638326</v>
+        <v>0.08393242641466711</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -5028,19 +5028,19 @@
         <v>28614</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19611</v>
+        <v>19260</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41347</v>
+        <v>42072</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04805415678371438</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03293485181989939</v>
+        <v>0.03234576821361068</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06943854302631026</v>
+        <v>0.07065470914514618</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>57</v>
@@ -5049,19 +5049,19 @@
         <v>65374</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>49475</v>
+        <v>50408</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>81802</v>
+        <v>86967</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0547572369611276</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04144000759870697</v>
+        <v>0.04222156312562186</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06851706431177411</v>
+        <v>0.07284356665819251</v>
       </c>
     </row>
     <row r="21">
@@ -5078,19 +5078,19 @@
         <v>92372</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>74494</v>
+        <v>74836</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>111113</v>
+        <v>113174</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1543548959303126</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1244799299395394</v>
+        <v>0.1250518034488587</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1856721692991365</v>
+        <v>0.1891160183485585</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>70</v>
@@ -5099,19 +5099,19 @@
         <v>81259</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>64272</v>
+        <v>65616</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>98945</v>
+        <v>100303</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1364663153541811</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.107937870147102</v>
+        <v>0.1101944470832446</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1661672393371037</v>
+        <v>0.1684475108015649</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>153</v>
@@ -5120,19 +5120,19 @@
         <v>173631</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>148919</v>
+        <v>150067</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>202315</v>
+        <v>199035</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1454329554689661</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1247342252362865</v>
+        <v>0.1256952294697332</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1694584255886824</v>
+        <v>0.1667110473579754</v>
       </c>
     </row>
     <row r="22">
@@ -5149,19 +5149,19 @@
         <v>457380</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>434368</v>
+        <v>435649</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>477113</v>
+        <v>478181</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7642904547615167</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7258359658313951</v>
+        <v>0.727977521871069</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7972633009533904</v>
+        <v>0.7990485686497842</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>412</v>
@@ -5170,19 +5170,19 @@
         <v>472491</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>452551</v>
+        <v>450945</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>493317</v>
+        <v>491682</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7934965957950117</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7600093893025818</v>
+        <v>0.7573120869708868</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8284723030979291</v>
+        <v>0.8257267465318414</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>822</v>
@@ -5191,19 +5191,19 @@
         <v>929871</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>896457</v>
+        <v>898668</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>959219</v>
+        <v>959947</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7788570353964395</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7508698362114328</v>
+        <v>0.7527217270824672</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.80343905202706</v>
+        <v>0.8040488181638259</v>
       </c>
     </row>
     <row r="23">
@@ -5295,19 +5295,19 @@
         <v>8478</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3603</v>
+        <v>4093</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16330</v>
+        <v>15977</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02044488156131057</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.008687968149709594</v>
+        <v>0.009871022128184821</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0393819838265151</v>
+        <v>0.03853161827988776</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -5316,19 +5316,19 @@
         <v>6056</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2075</v>
+        <v>2856</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12179</v>
+        <v>12425</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01391383025232071</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004768114080066335</v>
+        <v>0.006561516809354198</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02797968950162321</v>
+        <v>0.02854457747322253</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -5337,19 +5337,19 @@
         <v>14534</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7940</v>
+        <v>8136</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23123</v>
+        <v>23368</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01710009980656336</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.009341745163295013</v>
+        <v>0.009572620080954443</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02720491269713131</v>
+        <v>0.0274937064582279</v>
       </c>
     </row>
     <row r="25">
@@ -5366,19 +5366,19 @@
         <v>16771</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10406</v>
+        <v>10224</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26326</v>
+        <v>26024</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04044624379748196</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02509468029976022</v>
+        <v>0.02465650245826692</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06348779639793824</v>
+        <v>0.06275966314685689</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -5387,19 +5387,19 @@
         <v>13415</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7124</v>
+        <v>7326</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22690</v>
+        <v>24249</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03081924973718719</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01636604360770735</v>
+        <v>0.01682938437713039</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05212740236058539</v>
+        <v>0.05570853485532554</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -5408,19 +5408,19 @@
         <v>30186</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19677</v>
+        <v>21717</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>41815</v>
+        <v>43149</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03551592055203282</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02315142622857244</v>
+        <v>0.02555166661526712</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04919773427167207</v>
+        <v>0.05076707640718828</v>
       </c>
     </row>
     <row r="26">
@@ -5437,19 +5437,19 @@
         <v>40828</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>29627</v>
+        <v>29168</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>54025</v>
+        <v>54307</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09846120304168259</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07145035021745182</v>
+        <v>0.07034336400080345</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1302877456691165</v>
+        <v>0.1309682977930511</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>38</v>
@@ -5458,19 +5458,19 @@
         <v>41817</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>28928</v>
+        <v>30355</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>56435</v>
+        <v>55595</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09606783253356699</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06645808261081174</v>
+        <v>0.06973623337014682</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.129649733965174</v>
+        <v>0.1277210075504981</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>77</v>
@@ -5479,19 +5479,19 @@
         <v>82644</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>65304</v>
+        <v>65260</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>101683</v>
+        <v>100982</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09723547357958573</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07683332363719959</v>
+        <v>0.07678157156079556</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1196358849316576</v>
+        <v>0.1188108239130736</v>
       </c>
     </row>
     <row r="27">
@@ -5508,19 +5508,19 @@
         <v>348580</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>332218</v>
+        <v>332109</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>361962</v>
+        <v>363795</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8406476715995249</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8011887841660749</v>
+        <v>0.8009276277325333</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8729219732346641</v>
+        <v>0.8773406509350162</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>338</v>
@@ -5529,19 +5529,19 @@
         <v>373996</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>355876</v>
+        <v>357962</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>388151</v>
+        <v>386618</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8591990874769251</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8175702907648437</v>
+        <v>0.8223627101352118</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8917180348067355</v>
+        <v>0.8881951987153839</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>656</v>
@@ -5550,19 +5550,19 @@
         <v>722576</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>701152</v>
+        <v>698272</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>744592</v>
+        <v>741691</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8501485060618181</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8249416917693738</v>
+        <v>0.8215531662332831</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8760508617407193</v>
+        <v>0.8726380857478687</v>
       </c>
     </row>
     <row r="28">
@@ -5657,7 +5657,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7663</v>
+        <v>7318</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.007058128364143307</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02522905823506496</v>
+        <v>0.02409478408408629</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -5675,19 +5675,19 @@
         <v>3921</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9061</v>
+        <v>9801</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01141381026405496</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.00287479909640737</v>
+        <v>0.002881352110617493</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02637226187121556</v>
+        <v>0.02852833080795606</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -5696,19 +5696,19 @@
         <v>6065</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2878</v>
+        <v>2068</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>14298</v>
+        <v>13295</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00936998724610392</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004446090887549699</v>
+        <v>0.003194094776988663</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02208907613699827</v>
+        <v>0.02053945272760243</v>
       </c>
     </row>
     <row r="30">
@@ -5725,19 +5725,19 @@
         <v>6011</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2077</v>
+        <v>2022</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12110</v>
+        <v>12845</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01978912426533935</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.006837827519854432</v>
+        <v>0.006656623256279969</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03987139323501328</v>
+        <v>0.04229152555950505</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -5746,19 +5746,19 @@
         <v>6498</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2598</v>
+        <v>2797</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>13240</v>
+        <v>13601</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01891295818109915</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.007560438598794283</v>
+        <v>0.008142434742851585</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03853826128847687</v>
+        <v>0.03958903243299226</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>12</v>
@@ -5767,19 +5767,19 @@
         <v>12509</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6068</v>
+        <v>6904</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>21199</v>
+        <v>22000</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01932408288020871</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.009374855296421446</v>
+        <v>0.01066572731282955</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03274966229722841</v>
+        <v>0.03398788650147651</v>
       </c>
     </row>
     <row r="31">
@@ -5796,19 +5796,19 @@
         <v>17201</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10153</v>
+        <v>10715</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>27770</v>
+        <v>26867</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05663213680212897</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03342572670613054</v>
+        <v>0.03527876453672159</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09142854184710758</v>
+        <v>0.08845501966144211</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>19</v>
@@ -5817,19 +5817,19 @@
         <v>19336</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12504</v>
+        <v>11623</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>30096</v>
+        <v>28561</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05627921742274766</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03639555538793821</v>
+        <v>0.03383030437432675</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08759788194961844</v>
+        <v>0.08313121288814231</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>36</v>
@@ -5838,19 +5838,19 @@
         <v>36537</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>25267</v>
+        <v>25906</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>48382</v>
+        <v>50763</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05644481830169962</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0390344909619896</v>
+        <v>0.04002188367508577</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07474376640658668</v>
+        <v>0.07842192526676996</v>
       </c>
     </row>
     <row r="32">
@@ -5867,19 +5867,19 @@
         <v>278378</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>267893</v>
+        <v>266974</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>287139</v>
+        <v>286341</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9165206105683884</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8819975182706026</v>
+        <v>0.8789742472541254</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9453632529755346</v>
+        <v>0.9427355588683684</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>305</v>
@@ -5888,19 +5888,19 @@
         <v>313812</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>301697</v>
+        <v>301976</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>322590</v>
+        <v>323252</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9133940141320982</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8781303164666023</v>
+        <v>0.878943550845927</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9389446362977686</v>
+        <v>0.9408697968442569</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>556</v>
@@ -5909,19 +5909,19 @@
         <v>592191</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>578875</v>
+        <v>576634</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>607665</v>
+        <v>604546</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9148611115719878</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8942888841025807</v>
+        <v>0.8908275359576302</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9387658981675261</v>
+        <v>0.9339481007528948</v>
       </c>
     </row>
     <row r="33">
@@ -6013,19 +6013,19 @@
         <v>3289</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8826</v>
+        <v>8442</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01361509232257093</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.004220461004137776</v>
+        <v>0.004250882361157171</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03654048583092596</v>
+        <v>0.03494946673348042</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5246</v>
+        <v>5479</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.00283565370209279</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01431426479501951</v>
+        <v>0.01495011008094906</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -6055,19 +6055,19 @@
         <v>4328</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10799</v>
+        <v>10859</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.007118009968619671</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001724415860394231</v>
+        <v>0.001729528246237553</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01776056021689405</v>
+        <v>0.01786004790655637</v>
       </c>
     </row>
     <row r="35">
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7730</v>
+        <v>7788</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.009137666099131149</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03200224685693183</v>
+        <v>0.03224250883173568</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>8087</v>
+        <v>7975</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.006224736415120866</v>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0220666715524859</v>
+        <v>0.0217616324552459</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>4</v>
@@ -6126,19 +6126,19 @@
         <v>4488</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1149</v>
+        <v>1158</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>10315</v>
+        <v>11117</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.007381958337844731</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.00188972433738127</v>
+        <v>0.001904366107313871</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.016965047288349</v>
+        <v>0.01828422568387157</v>
       </c>
     </row>
     <row r="36">
@@ -6155,19 +6155,19 @@
         <v>20546</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>11843</v>
+        <v>12097</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>31764</v>
+        <v>32908</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.08505720555597011</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04903056905450399</v>
+        <v>0.05008236886939181</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1314987076394061</v>
+        <v>0.1362357227925848</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>11</v>
@@ -6176,19 +6176,19 @@
         <v>12032</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5553</v>
+        <v>6512</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>19874</v>
+        <v>19817</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03283270140618377</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01515367220242368</v>
+        <v>0.01777009903770578</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05422970821310554</v>
+        <v>0.05407370888556817</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>27</v>
@@ -6197,19 +6197,19 @@
         <v>32578</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>21936</v>
+        <v>20900</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>47901</v>
+        <v>47687</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05357997225081117</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03607758124103461</v>
+        <v>0.03437451674688714</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07878174846123902</v>
+        <v>0.07842955098974841</v>
       </c>
     </row>
     <row r="37">
@@ -6226,19 +6226,19 @@
         <v>215509</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>203513</v>
+        <v>201804</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>225046</v>
+        <v>224457</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.8921900360223278</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8425311017188856</v>
+        <v>0.8354525100317751</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9316764029248507</v>
+        <v>0.9292367053621018</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>316</v>
@@ -6247,19 +6247,19 @@
         <v>351120</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>342687</v>
+        <v>342326</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>357820</v>
+        <v>357630</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9581069084766026</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9350947276825674</v>
+        <v>0.9341091283780734</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9763888291683341</v>
+        <v>0.975868858718557</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>509</v>
@@ -6268,19 +6268,19 @@
         <v>566629</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>551474</v>
+        <v>551417</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>578116</v>
+        <v>579436</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9319200594427244</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9069958754780213</v>
+        <v>0.9069017329436315</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9508128760411443</v>
+        <v>0.95298356398346</v>
       </c>
     </row>
     <row r="38">
@@ -6372,19 +6372,19 @@
         <v>91982</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>74175</v>
+        <v>72257</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>112008</v>
+        <v>109182</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02762282451287267</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02227528437865558</v>
+        <v>0.02169909725964721</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03363661234568329</v>
+        <v>0.03278782857078136</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>66</v>
@@ -6393,19 +6393,19 @@
         <v>68291</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>54476</v>
+        <v>53313</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>84866</v>
+        <v>87640</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01988063993326169</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01585883678520267</v>
+        <v>0.01552010575317969</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02470580918692596</v>
+        <v>0.02551330992396634</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>157</v>
@@ -6414,19 +6414,19 @@
         <v>160274</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>138012</v>
+        <v>138210</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>188770</v>
+        <v>184700</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02369158100778317</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02040085843112337</v>
+        <v>0.02043008295294518</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.02790393125866128</v>
+        <v>0.02730226370993438</v>
       </c>
     </row>
     <row r="40">
@@ -6443,19 +6443,19 @@
         <v>208272</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>179619</v>
+        <v>178194</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>238159</v>
+        <v>237699</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0625452745870943</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05394051066693516</v>
+        <v>0.05351262931105633</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07152032081852618</v>
+        <v>0.07138214603280618</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>169</v>
@@ -6464,19 +6464,19 @@
         <v>176692</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>152451</v>
+        <v>154356</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>206930</v>
+        <v>205588</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0514376751612753</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04438087308856066</v>
+        <v>0.04493551142937878</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.06024039575544212</v>
+        <v>0.05984975303885838</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>366</v>
@@ -6485,19 +6485,19 @@
         <v>384964</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>348964</v>
+        <v>351337</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>425829</v>
+        <v>425856</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.05690517680191841</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05158370358867292</v>
+        <v>0.05193440477834366</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.06294583405622696</v>
+        <v>0.06294980471765198</v>
       </c>
     </row>
     <row r="41">
@@ -6514,19 +6514,19 @@
         <v>427529</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>391718</v>
+        <v>390754</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>466773</v>
+        <v>465943</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1283891142832928</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1176349505226534</v>
+        <v>0.1173455685809909</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1401745177353827</v>
+        <v>0.1399250175159437</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>334</v>
@@ -6535,19 +6535,19 @@
         <v>358609</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>324248</v>
+        <v>321898</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>393889</v>
+        <v>395109</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.104396574303682</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0943937236993635</v>
+        <v>0.09370934441322297</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1146671410135115</v>
+        <v>0.1150223660846015</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>749</v>
@@ -6556,19 +6556,19 @@
         <v>786138</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>732018</v>
+        <v>732436</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>844525</v>
+        <v>848994</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1162064394845237</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1082065135661792</v>
+        <v>0.1082682518340568</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1248372850118146</v>
+        <v>0.1254977939191475</v>
       </c>
     </row>
     <row r="42">
@@ -6585,19 +6585,19 @@
         <v>2602162</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2556033</v>
+        <v>2557307</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2654719</v>
+        <v>2656433</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.7814427866167403</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.7675900350074302</v>
+        <v>0.7679728593037691</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.7972260188794035</v>
+        <v>0.7977408342993136</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2611</v>
@@ -6606,19 +6606,19 @@
         <v>2831472</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2783381</v>
+        <v>2785611</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2870775</v>
+        <v>2878468</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.824285110601781</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.8102849291298236</v>
+        <v>0.8109343633778445</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.8357268773523792</v>
+        <v>0.8379664135811662</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>5027</v>
@@ -6627,19 +6627,19 @@
         <v>5433634</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>5360404</v>
+        <v>5361270</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>5499921</v>
+        <v>5496366</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.8031968027057746</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.7923719712268537</v>
+        <v>0.7925000070357049</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.8129953298185482</v>
+        <v>0.8124699424084111</v>
       </c>
     </row>
     <row r="43">
@@ -6974,19 +6974,19 @@
         <v>21060</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13160</v>
+        <v>13562</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32397</v>
+        <v>33504</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05109537557249796</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03192805535011847</v>
+        <v>0.03290302760708209</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07859866957342748</v>
+        <v>0.08128419120191784</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -6995,19 +6995,19 @@
         <v>20037</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12354</v>
+        <v>12269</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29518</v>
+        <v>29406</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05188827213341864</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0319924769300362</v>
+        <v>0.03177073099641827</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07643874024991271</v>
+        <v>0.07614874476322639</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -7016,19 +7016,19 @@
         <v>41097</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30514</v>
+        <v>29812</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54578</v>
+        <v>54732</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05147890299172215</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03822222582072837</v>
+        <v>0.03734297012919793</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06836530989800423</v>
+        <v>0.06855771504755481</v>
       </c>
     </row>
     <row r="5">
@@ -7045,19 +7045,19 @@
         <v>61483</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47559</v>
+        <v>48136</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>76830</v>
+        <v>76489</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1491669494874235</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1153856099102098</v>
+        <v>0.1167835696390816</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1864009159171472</v>
+        <v>0.1855734436358596</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>45</v>
@@ -7066,19 +7066,19 @@
         <v>44673</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32987</v>
+        <v>34153</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59339</v>
+        <v>58709</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1156865416499858</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08542244310233055</v>
+        <v>0.08844213143183931</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1536648216321794</v>
+        <v>0.1520324676086284</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>103</v>
@@ -7087,19 +7087,19 @@
         <v>106157</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>86785</v>
+        <v>88036</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>125248</v>
+        <v>126352</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1329723346469253</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1087070187661964</v>
+        <v>0.1102746214572016</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.156885797677659</v>
+        <v>0.1582696802925694</v>
       </c>
     </row>
     <row r="6">
@@ -7116,19 +7116,19 @@
         <v>96929</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>78429</v>
+        <v>79175</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114717</v>
+        <v>116926</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2351629253975017</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1902804848096114</v>
+        <v>0.1920898824560876</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2783186734622819</v>
+        <v>0.2836789702027146</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>90</v>
@@ -7137,19 +7137,19 @@
         <v>88399</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>72812</v>
+        <v>73270</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>104728</v>
+        <v>108065</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2289185802146926</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.188553924347804</v>
+        <v>0.1897417210422641</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2712047486540529</v>
+        <v>0.2798458347644447</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>182</v>
@@ -7158,19 +7158,19 @@
         <v>185328</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>165180</v>
+        <v>165202</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>211071</v>
+        <v>208690</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2321425092288063</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2069053338657622</v>
+        <v>0.2069326056508878</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2643890537242032</v>
+        <v>0.2614066644726578</v>
       </c>
     </row>
     <row r="7">
@@ -7187,19 +7187,19 @@
         <v>232705</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>212388</v>
+        <v>211443</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>253853</v>
+        <v>253283</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5645747495425769</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5152814251266873</v>
+        <v>0.5129890118816047</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6158810738684782</v>
+        <v>0.6144997284217052</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>239</v>
@@ -7208,19 +7208,19 @@
         <v>233050</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>215527</v>
+        <v>212973</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>253251</v>
+        <v>251342</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.603506606001903</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5581289459429023</v>
+        <v>0.5515163581562522</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.655821104752956</v>
+        <v>0.6508760685850435</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>456</v>
@@ -7229,19 +7229,19 @@
         <v>465754</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>436806</v>
+        <v>438985</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>490618</v>
+        <v>491651</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5834062531325463</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5471460204439003</v>
+        <v>0.549875034902228</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6145512304758882</v>
+        <v>0.6158447155496698</v>
       </c>
     </row>
     <row r="8">
@@ -7333,19 +7333,19 @@
         <v>33422</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>23004</v>
+        <v>22531</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>46694</v>
+        <v>45056</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05737840627873684</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03949412400306639</v>
+        <v>0.03868156321724524</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08016538384095429</v>
+        <v>0.07735230958843656</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>29</v>
@@ -7354,19 +7354,19 @@
         <v>28165</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19008</v>
+        <v>18924</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>40182</v>
+        <v>38972</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05040289592531864</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0340150409869823</v>
+        <v>0.03386502249681284</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07190654757756426</v>
+        <v>0.06974178320381447</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>60</v>
@@ -7375,19 +7375,19 @@
         <v>61587</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>47063</v>
+        <v>47756</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>77109</v>
+        <v>78267</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05396298974527412</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04123666618140379</v>
+        <v>0.04184440497937793</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06756324865071645</v>
+        <v>0.0685777522577662</v>
       </c>
     </row>
     <row r="10">
@@ -7404,19 +7404,19 @@
         <v>80314</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>64663</v>
+        <v>64293</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>98430</v>
+        <v>97853</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.13788359189631</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1110134358062887</v>
+        <v>0.1103777714596036</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1689849126440518</v>
+        <v>0.1679942286866014</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>65</v>
@@ -7425,19 +7425,19 @@
         <v>63272</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49289</v>
+        <v>49389</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78687</v>
+        <v>78728</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1132272162273387</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08820482761050993</v>
+        <v>0.08838290511588534</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1408129833382564</v>
+        <v>0.1408855811639448</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>142</v>
@@ -7446,19 +7446,19 @@
         <v>143586</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>123255</v>
+        <v>122942</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>167457</v>
+        <v>169110</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1258110998708618</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1079966500751437</v>
+        <v>0.1077222229042702</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.146727310948364</v>
+        <v>0.1481752839157084</v>
       </c>
     </row>
     <row r="11">
@@ -7475,19 +7475,19 @@
         <v>131601</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>112822</v>
+        <v>112900</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>152924</v>
+        <v>155568</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2259338505334573</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1936936596896839</v>
+        <v>0.1938281481154611</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2625406794107014</v>
+        <v>0.2670801486129666</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>128</v>
@@ -7496,19 +7496,19 @@
         <v>124164</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>106995</v>
+        <v>105287</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>145211</v>
+        <v>144763</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2221951998843754</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.191471318318891</v>
+        <v>0.1884142337614568</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2598591176905752</v>
+        <v>0.2590577420613009</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>254</v>
@@ -7517,19 +7517,19 @@
         <v>255765</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>228979</v>
+        <v>230997</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>285204</v>
+        <v>285216</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2241032964101367</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2006325735401575</v>
+        <v>0.2024015851023732</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2498980621361766</v>
+        <v>0.2499085277229615</v>
       </c>
     </row>
     <row r="12">
@@ -7546,19 +7546,19 @@
         <v>337140</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>312346</v>
+        <v>311810</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>358922</v>
+        <v>360502</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5788041512914959</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5362372578387147</v>
+        <v>0.5353175543063572</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6161996438118084</v>
+        <v>0.6189114063771494</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>352</v>
@@ -7567,19 +7567,19 @@
         <v>343205</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>320904</v>
+        <v>320659</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>368379</v>
+        <v>365425</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6141746879629673</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5742669543464269</v>
+        <v>0.5738283742897705</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6592255581419517</v>
+        <v>0.6539385542753205</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>677</v>
@@ -7588,19 +7588,19 @@
         <v>680345</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>649460</v>
+        <v>648985</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>716662</v>
+        <v>712592</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5961226139737273</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5690615232615226</v>
+        <v>0.5686454441805776</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6279440233431395</v>
+        <v>0.6243776022548624</v>
       </c>
     </row>
     <row r="13">
@@ -7692,19 +7692,19 @@
         <v>27293</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17818</v>
+        <v>18320</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38770</v>
+        <v>38190</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04164318020381023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02718727931827518</v>
+        <v>0.02795242572561881</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05915558466349154</v>
+        <v>0.05827034068655588</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -7713,19 +7713,19 @@
         <v>23033</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15587</v>
+        <v>15388</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34604</v>
+        <v>32711</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03601974044471418</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02437608852321741</v>
+        <v>0.02406490347085886</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0541147349582139</v>
+        <v>0.05115520109202575</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>50</v>
@@ -7734,19 +7734,19 @@
         <v>50326</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>38165</v>
+        <v>37970</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>65923</v>
+        <v>66851</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03886609032225832</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02947481239881899</v>
+        <v>0.02932372904687722</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05091174758951257</v>
+        <v>0.05162847354648838</v>
       </c>
     </row>
     <row r="15">
@@ -7763,19 +7763,19 @@
         <v>41154</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>29604</v>
+        <v>28939</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>55765</v>
+        <v>54314</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0627929411040947</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04516969751326221</v>
+        <v>0.04415475193079738</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08508619799671574</v>
+        <v>0.08287242373265538</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>50</v>
@@ -7784,19 +7784,19 @@
         <v>49627</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>37206</v>
+        <v>37695</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>63833</v>
+        <v>63031</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07760885253605054</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05818396087913819</v>
+        <v>0.05894871577025067</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09982433545685877</v>
+        <v>0.09857145654993424</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>88</v>
@@ -7805,19 +7805,19 @@
         <v>90781</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>72663</v>
+        <v>72757</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>114072</v>
+        <v>109359</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07010965818230304</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05611683557317532</v>
+        <v>0.05618947105852656</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08809671565594246</v>
+        <v>0.08445694674594297</v>
       </c>
     </row>
     <row r="16">
@@ -7834,19 +7834,19 @@
         <v>130951</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>110239</v>
+        <v>111672</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>150946</v>
+        <v>154084</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1998037016544547</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1682022120546981</v>
+        <v>0.1703878516861047</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2303122274249822</v>
+        <v>0.2351007611381762</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>110</v>
@@ -7855,19 +7855,19 @@
         <v>110285</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>90423</v>
+        <v>92128</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>128523</v>
+        <v>128069</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1724680558337755</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1414072337275845</v>
+        <v>0.144073713417513</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2009909340927696</v>
+        <v>0.2002803539110184</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>233</v>
@@ -7876,19 +7876,19 @@
         <v>241235</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>211536</v>
+        <v>214841</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>268974</v>
+        <v>271255</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1863042158119145</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1633680022358917</v>
+        <v>0.1659200130099033</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2077267325194642</v>
+        <v>0.2094880095091527</v>
       </c>
     </row>
     <row r="17">
@@ -7905,19 +7905,19 @@
         <v>455999</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>432125</v>
+        <v>431513</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>480006</v>
+        <v>481969</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6957601770376404</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6593325551179207</v>
+        <v>0.6583993401049625</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7323892268609307</v>
+        <v>0.7353850796688155</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>459</v>
@@ -7926,19 +7926,19 @@
         <v>456505</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>434745</v>
+        <v>434775</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>479815</v>
+        <v>477928</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7139033511854598</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6798745190184717</v>
+        <v>0.679920664956304</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7503567344071114</v>
+        <v>0.7474057419319213</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>898</v>
@@ -7947,19 +7947,19 @@
         <v>912504</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>878316</v>
+        <v>879491</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>942707</v>
+        <v>945323</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7047200356835241</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6783169807789964</v>
+        <v>0.6792247785650996</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7280452998876629</v>
+        <v>0.7300657140141529</v>
       </c>
     </row>
     <row r="18">
@@ -8051,19 +8051,19 @@
         <v>24995</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16579</v>
+        <v>15554</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38393</v>
+        <v>37870</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04001990408255941</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02654465739979894</v>
+        <v>0.02490473430020503</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06147223669152955</v>
+        <v>0.06063447669504375</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -8072,19 +8072,19 @@
         <v>31681</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21973</v>
+        <v>21730</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44415</v>
+        <v>44479</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0497711294775831</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03452018812338575</v>
+        <v>0.03413790411633637</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06977690512277623</v>
+        <v>0.06987841535224032</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -8093,19 +8093,19 @@
         <v>56675</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42810</v>
+        <v>43068</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72516</v>
+        <v>73418</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04494179841955427</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03394749573121962</v>
+        <v>0.03415159460276809</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05750279499668675</v>
+        <v>0.05821871654692997</v>
       </c>
     </row>
     <row r="20">
@@ -8122,19 +8122,19 @@
         <v>50969</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37794</v>
+        <v>38335</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>66324</v>
+        <v>66952</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08160784483336526</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06051287539810966</v>
+        <v>0.06137939002970036</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1061945278914486</v>
+        <v>0.1071992521151078</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>39</v>
@@ -8143,19 +8143,19 @@
         <v>43287</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31109</v>
+        <v>31892</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>57689</v>
+        <v>59008</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06800508765615411</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04887320853250693</v>
+        <v>0.05010342758367574</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0906318335760234</v>
+        <v>0.09270272844511024</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>85</v>
@@ -8164,19 +8164,19 @@
         <v>94255</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>76338</v>
+        <v>77428</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>115232</v>
+        <v>116684</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07474190431760211</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06053398002476858</v>
+        <v>0.06139857607360823</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09137599575698838</v>
+        <v>0.09252694139578432</v>
       </c>
     </row>
     <row r="21">
@@ -8193,19 +8193,19 @@
         <v>113150</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>94934</v>
+        <v>94283</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>133683</v>
+        <v>132352</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1811688948206531</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1520027569613114</v>
+        <v>0.1509599026447845</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2140455872535217</v>
+        <v>0.2119147039167164</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>104</v>
@@ -8214,19 +8214,19 @@
         <v>116069</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>98299</v>
+        <v>94772</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>139498</v>
+        <v>136011</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1823486564437712</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1544300007462487</v>
+        <v>0.1488902490096685</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2191548844543352</v>
+        <v>0.2136778416676882</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>205</v>
@@ -8235,19 +8235,19 @@
         <v>229219</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>200863</v>
+        <v>202119</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>257528</v>
+        <v>260771</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1817643750620177</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1592785194960606</v>
+        <v>0.1602746929605622</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2042121258332545</v>
+        <v>0.2067839515785087</v>
       </c>
     </row>
     <row r="22">
@@ -8264,19 +8264,19 @@
         <v>435441</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>410794</v>
+        <v>410257</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>458175</v>
+        <v>457428</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6972033562634222</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.657739819145571</v>
+        <v>0.6568807264213962</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7336031239784883</v>
+        <v>0.7324066881563955</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>419</v>
@@ -8285,19 +8285,19 @@
         <v>445488</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>419300</v>
+        <v>422320</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>467455</v>
+        <v>469591</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6998751264224916</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6587329508845302</v>
+        <v>0.663477970888947</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.734386271848454</v>
+        <v>0.73774173401746</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>814</v>
@@ -8306,19 +8306,19 @@
         <v>880929</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>847548</v>
+        <v>846008</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>914582</v>
+        <v>914197</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.698551922200826</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6720819184765224</v>
+        <v>0.670860055031594</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7252375806358271</v>
+        <v>0.7249322510729399</v>
       </c>
     </row>
     <row r="23">
@@ -8410,19 +8410,19 @@
         <v>16074</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9075</v>
+        <v>8936</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26666</v>
+        <v>26720</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03399452983640322</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01919313668326789</v>
+        <v>0.01889745757224558</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05639495311062587</v>
+        <v>0.05650905585319336</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -8431,19 +8431,19 @@
         <v>9027</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4483</v>
+        <v>3507</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16886</v>
+        <v>17571</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0187985915848093</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009336258123317152</v>
+        <v>0.007303452825017504</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03516503493669582</v>
+        <v>0.03659173504092599</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -8452,19 +8452,19 @@
         <v>25101</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15710</v>
+        <v>16811</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>36851</v>
+        <v>39602</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0263379409079215</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01648414800926045</v>
+        <v>0.01763910466007134</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03866681994868712</v>
+        <v>0.04155359946821627</v>
       </c>
     </row>
     <row r="25">
@@ -8481,19 +8481,19 @@
         <v>29089</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19538</v>
+        <v>19304</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>42114</v>
+        <v>41394</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0615186382624552</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04131942933111132</v>
+        <v>0.04082461874599389</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08906580099513088</v>
+        <v>0.0875426800115342</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -8502,19 +8502,19 @@
         <v>31362</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21407</v>
+        <v>20988</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>43858</v>
+        <v>44384</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06531157483916307</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04457874659695147</v>
+        <v>0.04370650650524655</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09133360381055454</v>
+        <v>0.09242924570959653</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>53</v>
@@ -8523,19 +8523,19 @@
         <v>60451</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46157</v>
+        <v>45538</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>77544</v>
+        <v>79241</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06342973817078819</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04843140788497237</v>
+        <v>0.04778176298904533</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0813650629822848</v>
+        <v>0.08314556347111521</v>
       </c>
     </row>
     <row r="26">
@@ -8552,19 +8552,19 @@
         <v>65913</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>52144</v>
+        <v>51308</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>81774</v>
+        <v>83505</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1393976978354678</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1102766878246349</v>
+        <v>0.1085100021500958</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1729403466928314</v>
+        <v>0.1766014449144706</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>63</v>
@@ -8573,19 +8573,19 @@
         <v>75248</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>58685</v>
+        <v>60148</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>95290</v>
+        <v>94169</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1567029040114961</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1222101989691119</v>
+        <v>0.1252570402145295</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1984394467167747</v>
+        <v>0.1961053671045333</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>122</v>
@@ -8594,19 +8594,19 @@
         <v>141162</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>117971</v>
+        <v>116845</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>164681</v>
+        <v>165788</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1481170574313502</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1237838514405271</v>
+        <v>0.1226023554805223</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1727956072004285</v>
+        <v>0.1739565808759313</v>
       </c>
     </row>
     <row r="27">
@@ -8623,19 +8623,19 @@
         <v>361768</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>341713</v>
+        <v>342370</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>380182</v>
+        <v>382703</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7650891340656737</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7226765103092269</v>
+        <v>0.7240655443543746</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8040328425220743</v>
+        <v>0.8093638000791008</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>320</v>
@@ -8644,19 +8644,19 @@
         <v>364559</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>341792</v>
+        <v>343236</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>382808</v>
+        <v>385756</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7591869295645316</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7117749942467123</v>
+        <v>0.7147820776928986</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7971890944162593</v>
+        <v>0.8033284277058383</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>642</v>
@@ -8665,19 +8665,19 @@
         <v>726327</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>697940</v>
+        <v>697565</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>751774</v>
+        <v>754967</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7621152634899401</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7323297164603682</v>
+        <v>0.7319356516076546</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7888157102032818</v>
+        <v>0.7921665529059998</v>
       </c>
     </row>
     <row r="28">
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5363</v>
+        <v>6463</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.003293822251924293</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01641905978923405</v>
+        <v>0.01978791677745704</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -8790,19 +8790,19 @@
         <v>5183</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1972</v>
+        <v>1940</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11737</v>
+        <v>11332</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01417551103821816</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005394212796766265</v>
+        <v>0.005306596286255831</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03210310800197248</v>
+        <v>0.03099415976590356</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -8811,19 +8811,19 @@
         <v>6259</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2129</v>
+        <v>2816</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12470</v>
+        <v>13983</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.009040971583690154</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003075397580056377</v>
+        <v>0.004067983194988798</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01801318504887442</v>
+        <v>0.02019919478200658</v>
       </c>
     </row>
     <row r="30">
@@ -8840,19 +8840,19 @@
         <v>15373</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9096</v>
+        <v>9087</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24271</v>
+        <v>25579</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04706432880921242</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02784750681633499</v>
+        <v>0.02781856071866579</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07430440127490798</v>
+        <v>0.07830946720197909</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -8861,19 +8861,19 @@
         <v>10492</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5310</v>
+        <v>5228</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18113</v>
+        <v>18192</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02869777663747809</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01452298744710596</v>
+        <v>0.01429987264721653</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04954164872583042</v>
+        <v>0.04975905939329359</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>24</v>
@@ -8882,19 +8882,19 @@
         <v>25865</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>16578</v>
+        <v>17332</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>36645</v>
+        <v>37858</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0373640589233856</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02394854124279302</v>
+        <v>0.02503733365641107</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05293672444706872</v>
+        <v>0.05468805586047765</v>
       </c>
     </row>
     <row r="31">
@@ -8911,19 +8911,19 @@
         <v>45461</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>33169</v>
+        <v>32749</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>59008</v>
+        <v>59170</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1391771191016201</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1015463366565293</v>
+        <v>0.1002600153991551</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1806529954823608</v>
+        <v>0.1811488125469881</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>28</v>
@@ -8932,19 +8932,19 @@
         <v>31842</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>22021</v>
+        <v>22228</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>45927</v>
+        <v>43152</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08709275809980387</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06023198130415809</v>
+        <v>0.06079773376105196</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1256169767851987</v>
+        <v>0.1180264144526175</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>71</v>
@@ -8953,19 +8953,19 @@
         <v>77303</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>62012</v>
+        <v>61839</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>96021</v>
+        <v>95903</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1116688337237041</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08958117205072404</v>
+        <v>0.08933008360784356</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1387082934234276</v>
+        <v>0.1385386237935913</v>
       </c>
     </row>
     <row r="32">
@@ -8982,19 +8982,19 @@
         <v>264729</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>249430</v>
+        <v>248406</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>278512</v>
+        <v>279939</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8104647298372432</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7636285615315238</v>
+        <v>0.7604927562835897</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8526637268970119</v>
+        <v>0.8570304478373341</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>299</v>
@@ -9003,19 +9003,19 @@
         <v>318093</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>301879</v>
+        <v>303127</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>329847</v>
+        <v>329893</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8700339542244999</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8256866108061297</v>
+        <v>0.8291006525388847</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9021831598992961</v>
+        <v>0.9023071554471486</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>559</v>
@@ -9024,19 +9024,19 @@
         <v>582823</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>561139</v>
+        <v>562232</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>601399</v>
+        <v>601190</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8419261357692202</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.810602676923187</v>
+        <v>0.8121818642474711</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8687614837407563</v>
+        <v>0.8684586149838923</v>
       </c>
     </row>
     <row r="33">
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5234</v>
+        <v>5979</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.006970717551868835</v>
@@ -9140,7 +9140,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02109770154134298</v>
+        <v>0.02409965238252923</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -9149,19 +9149,19 @@
         <v>5352</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>13108</v>
+        <v>12191</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01393088211498651</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003467924912066568</v>
+        <v>0.003472126079967163</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03412039751025646</v>
+        <v>0.03173409006569088</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6</v>
@@ -9170,19 +9170,19 @@
         <v>7081</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2655</v>
+        <v>2693</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>15729</v>
+        <v>14507</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0111997389858371</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.004198772123049642</v>
+        <v>0.004259210040443441</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02487755035068662</v>
+        <v>0.02294543208677956</v>
       </c>
     </row>
     <row r="35">
@@ -9199,19 +9199,19 @@
         <v>5973</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2561</v>
+        <v>2509</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>11558</v>
+        <v>11838</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02407439711239225</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0103244371107072</v>
+        <v>0.01011217097562353</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04658672282428655</v>
+        <v>0.04771703155071318</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>7</v>
@@ -9220,19 +9220,19 @@
         <v>9216</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3948</v>
+        <v>3841</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>18496</v>
+        <v>18145</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02398893032306373</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01027649136880137</v>
+        <v>0.009997950267814802</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04814795059309583</v>
+        <v>0.04723215788347625</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>14</v>
@@ -9241,19 +9241,19 @@
         <v>15188</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>8725</v>
+        <v>8441</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>24792</v>
+        <v>25025</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02402246717874125</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01380027245796648</v>
+        <v>0.01335070160885686</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03921276936108441</v>
+        <v>0.03958017690060884</v>
       </c>
     </row>
     <row r="36">
@@ -9270,19 +9270,19 @@
         <v>15115</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9002</v>
+        <v>9363</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>23383</v>
+        <v>23526</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06092276040918109</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03628581873303361</v>
+        <v>0.03773846511145517</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09425053575478982</v>
+        <v>0.09482900918780111</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -9291,19 +9291,19 @@
         <v>14137</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>6735</v>
+        <v>7539</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>25013</v>
+        <v>26225</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03680052181650928</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01753298134482099</v>
+        <v>0.01962385062738271</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06511027192467925</v>
+        <v>0.06826566786582042</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>28</v>
@@ -9312,19 +9312,19 @@
         <v>29252</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>19429</v>
+        <v>18745</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>42816</v>
+        <v>41649</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04626600005263998</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03072978324759506</v>
+        <v>0.02964818425561568</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.06772017064823975</v>
+        <v>0.06587475952767992</v>
       </c>
     </row>
     <row r="37">
@@ -9341,19 +9341,19 @@
         <v>225276</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>216120</v>
+        <v>215743</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>233175</v>
+        <v>232638</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9080321249265578</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8711269364437683</v>
+        <v>0.8696041997426128</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9398693157817014</v>
+        <v>0.9377040930148505</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>268</v>
@@ -9362,19 +9362,19 @@
         <v>355455</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>342009</v>
+        <v>341411</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>365644</v>
+        <v>366094</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9252796657454405</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8902787612937721</v>
+        <v>0.8887221696751225</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9518032738775456</v>
+        <v>0.9529755920247286</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>532</v>
@@ -9383,19 +9383,19 @@
         <v>580731</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>564640</v>
+        <v>564527</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>593728</v>
+        <v>593938</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9185117937827817</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8930612548670093</v>
+        <v>0.8928828171284651</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.939067933137534</v>
+        <v>0.9394005829181635</v>
       </c>
     </row>
     <row r="38">
@@ -9487,19 +9487,19 @@
         <v>125649</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>105235</v>
+        <v>104056</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>150419</v>
+        <v>149500</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.03782116472884601</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.03167639031859146</v>
+        <v>0.03132163715030274</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04527713170031191</v>
+        <v>0.04500063085859681</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>118</v>
@@ -9508,19 +9508,19 @@
         <v>122477</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>103454</v>
+        <v>102589</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>146879</v>
+        <v>145781</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.03549136532568873</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.02997867983622112</v>
+        <v>0.02972813989759612</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.04256236972793501</v>
+        <v>0.04224427447695479</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>232</v>
@@ -9529,19 +9529,19 @@
         <v>248126</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>214707</v>
+        <v>218736</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>280392</v>
+        <v>280260</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.03663412604613864</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03170007192415207</v>
+        <v>0.0322948189418357</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.04139794023388423</v>
+        <v>0.04137847580072822</v>
       </c>
     </row>
     <row r="40">
@@ -9558,19 +9558,19 @@
         <v>284355</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>254260</v>
+        <v>254712</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>316981</v>
+        <v>318981</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.08559272530471021</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0765341323527418</v>
+        <v>0.0766702365936115</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.09541353002880326</v>
+        <v>0.09601539629697367</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>243</v>
@@ -9579,19 +9579,19 @@
         <v>251929</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>220887</v>
+        <v>223199</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>285126</v>
+        <v>285641</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.07300388527813013</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06400846433224029</v>
+        <v>0.0646783927968073</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08262347188074562</v>
+        <v>0.08277274663960942</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>509</v>
@@ -9600,19 +9600,19 @@
         <v>536284</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>493460</v>
+        <v>493024</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>587655</v>
+        <v>582344</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.07917867950243448</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07285594853890791</v>
+        <v>0.07279170367781483</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0867632595230278</v>
+        <v>0.08597910598252125</v>
       </c>
     </row>
     <row r="41">
@@ -9629,19 +9629,19 @@
         <v>599119</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>557072</v>
+        <v>554603</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>644754</v>
+        <v>644025</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1803390907778743</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1676826937921883</v>
+        <v>0.1669394885434062</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1940754762195127</v>
+        <v>0.193855886935449</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>533</v>
@@ -9650,19 +9650,19 @@
         <v>560144</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>518725</v>
+        <v>516860</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>604829</v>
+        <v>603004</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.162318145413779</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1503155098500836</v>
+        <v>0.14977507478051</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1752667805975445</v>
+        <v>0.1747380299389788</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1095</v>
@@ -9671,19 +9671,19 @@
         <v>1159264</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1097568</v>
+        <v>1100771</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1226403</v>
+        <v>1227640</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1711573735806135</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.162048478260921</v>
+        <v>0.1625213385983937</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.18107009406222</v>
+        <v>0.1812526161031519</v>
       </c>
     </row>
     <row r="42">
@@ -9700,19 +9700,19 @@
         <v>2313059</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2257209</v>
+        <v>2259159</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2365423</v>
+        <v>2367953</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.6962470191885695</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6794355506002212</v>
+        <v>0.6800227817948939</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.7120089717287361</v>
+        <v>0.7127704546408619</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2356</v>
@@ -9721,19 +9721,19 @@
         <v>2516354</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2464137</v>
+        <v>2464492</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2571769</v>
+        <v>2567714</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.7291866039824021</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.7140553435388567</v>
+        <v>0.714158174067737</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.7452447854989019</v>
+        <v>0.7440696279116832</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4578</v>
@@ -9742,19 +9742,19 @@
         <v>4829412</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4748399</v>
+        <v>4757555</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4902624</v>
+        <v>4901919</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.7130298208708133</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.7010687896203477</v>
+        <v>0.7024205600484443</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.7238389612447402</v>
+        <v>0.7237349696660628</v>
       </c>
     </row>
     <row r="43">
@@ -10089,19 +10089,19 @@
         <v>10684</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2770</v>
+        <v>2904</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26102</v>
+        <v>27270</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02619959564780312</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006791637824431818</v>
+        <v>0.007121885921457583</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06400759233347741</v>
+        <v>0.06687221577378347</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -10110,19 +10110,19 @@
         <v>10160</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3509</v>
+        <v>3624</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21439</v>
+        <v>20864</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02834772312909039</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00979018549023853</v>
+        <v>0.01011244872264646</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05981427184339883</v>
+        <v>0.05820984032155679</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -10131,19 +10131,19 @@
         <v>20844</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9512</v>
+        <v>10159</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36797</v>
+        <v>37533</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0272044468130836</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0124149652688512</v>
+        <v>0.01325819933986345</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0480242375962695</v>
+        <v>0.04898472049291814</v>
       </c>
     </row>
     <row r="5">
@@ -10160,19 +10160,19 @@
         <v>40242</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23924</v>
+        <v>23757</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64229</v>
+        <v>62839</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0986824447612713</v>
+        <v>0.09868244476127129</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05866690937466986</v>
+        <v>0.05825838138679073</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1575035662756783</v>
+        <v>0.1540957270369265</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -10181,19 +10181,19 @@
         <v>25381</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14847</v>
+        <v>14441</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43727</v>
+        <v>41439</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.07081349743569966</v>
+        <v>0.07081349743569963</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04142342691882615</v>
+        <v>0.04029052564342848</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1219985261157691</v>
+        <v>0.1156149867361983</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -10202,19 +10202,19 @@
         <v>65623</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>44622</v>
+        <v>46053</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>92789</v>
+        <v>89899</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08564590738665528</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05823751352163758</v>
+        <v>0.06010532995170415</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1211011125152169</v>
+        <v>0.1173287203054117</v>
       </c>
     </row>
     <row r="6">
@@ -10231,19 +10231,19 @@
         <v>73918</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50023</v>
+        <v>49510</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>103459</v>
+        <v>104494</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.181263617905054</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1226680220167418</v>
+        <v>0.1214100697228557</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2537046966558031</v>
+        <v>0.2562418645705115</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -10252,19 +10252,19 @@
         <v>38404</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24010</v>
+        <v>24389</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>57775</v>
+        <v>58984</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1071473035650152</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06698916815718428</v>
+        <v>0.06804575120641428</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1611951249374448</v>
+        <v>0.16456709092831</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>46</v>
@@ -10273,19 +10273,19 @@
         <v>112322</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>84202</v>
+        <v>84210</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>144491</v>
+        <v>147607</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1465934852059215</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1098939030950458</v>
+        <v>0.1099044085326193</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1885781409146236</v>
+        <v>0.1926452940368895</v>
       </c>
     </row>
     <row r="7">
@@ -10302,19 +10302,19 @@
         <v>282949</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>251709</v>
+        <v>250906</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>312943</v>
+        <v>313015</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6938543416858717</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6172473330529683</v>
+        <v>0.6152780076981155</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7674067647531536</v>
+        <v>0.7675829623731035</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>164</v>
@@ -10323,19 +10323,19 @@
         <v>284474</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>262293</v>
+        <v>260609</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>303886</v>
+        <v>304533</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7936914758701948</v>
+        <v>0.7936914758701947</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7318058949207183</v>
+        <v>0.7271064834688177</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8478501228302361</v>
+        <v>0.8496568010906662</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>290</v>
@@ -10344,19 +10344,19 @@
         <v>567423</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>527607</v>
+        <v>526870</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>602855</v>
+        <v>599362</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7405561605943395</v>
+        <v>0.7405561605943396</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6885918382623064</v>
+        <v>0.6876290451392338</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7867988862966682</v>
+        <v>0.7822403366174119</v>
       </c>
     </row>
     <row r="8">
@@ -10448,19 +10448,19 @@
         <v>4200</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1117</v>
+        <v>1090</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13088</v>
+        <v>11619</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0088064670907763</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002342666977227899</v>
+        <v>0.002286342943794529</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02744465398512653</v>
+        <v>0.02436476334513559</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -10469,19 +10469,19 @@
         <v>10655</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5012</v>
+        <v>5107</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20222</v>
+        <v>19742</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.0213936045700745</v>
+        <v>0.02139360457007451</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01006238606544237</v>
+        <v>0.01025312367906153</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04060175639935001</v>
+        <v>0.03963776610381655</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -10490,19 +10490,19 @@
         <v>14855</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8080</v>
+        <v>8256</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24977</v>
+        <v>26086</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01523662170973473</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.008288049878974206</v>
+        <v>0.008468107621194858</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0256194947454144</v>
+        <v>0.02675653246110266</v>
       </c>
     </row>
     <row r="10">
@@ -10519,19 +10519,19 @@
         <v>52958</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36790</v>
+        <v>37771</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70760</v>
+        <v>71974</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1110480070317438</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0771466814713211</v>
+        <v>0.07920336933256492</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1483775695568758</v>
+        <v>0.1509233652647833</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -10540,19 +10540,19 @@
         <v>25658</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16897</v>
+        <v>17559</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37062</v>
+        <v>37901</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05151671773344559</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03392737028790521</v>
+        <v>0.03525484799804077</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07441382533128653</v>
+        <v>0.07609977971265791</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -10561,19 +10561,19 @@
         <v>78616</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60900</v>
+        <v>60656</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103130</v>
+        <v>101016</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08063637488078194</v>
+        <v>0.08063637488078193</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06246537946475165</v>
+        <v>0.06221478514247406</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1057813094761059</v>
+        <v>0.1036122043330778</v>
       </c>
     </row>
     <row r="11">
@@ -10590,19 +10590,19 @@
         <v>70079</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>51810</v>
+        <v>52578</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>91636</v>
+        <v>94143</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1469508184439675</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1086410128998205</v>
+        <v>0.1102523156803903</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1921542594737305</v>
+        <v>0.1974109248618783</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>70</v>
@@ -10611,19 +10611,19 @@
         <v>73938</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>59041</v>
+        <v>58638</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>93077</v>
+        <v>92961</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1484561540972933</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1185450724688143</v>
+        <v>0.1177344288937841</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1868828370207151</v>
+        <v>0.1866496095935559</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>113</v>
@@ -10632,19 +10632,19 @@
         <v>144018</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>119091</v>
+        <v>120183</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>172896</v>
+        <v>172369</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1477198210087076</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1221525342953616</v>
+        <v>0.1232726313199994</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1773403337724372</v>
+        <v>0.1767996005960944</v>
       </c>
     </row>
     <row r="12">
@@ -10661,19 +10661,19 @@
         <v>349653</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>321961</v>
+        <v>323984</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>372183</v>
+        <v>374053</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7331947074335123</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6751264221367763</v>
+        <v>0.679367409765159</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7804380460208146</v>
+        <v>0.7843599464006534</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>353</v>
@@ -10682,19 +10682,19 @@
         <v>387798</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>366680</v>
+        <v>364793</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>406562</v>
+        <v>404644</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7786335235991866</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7362328715284414</v>
+        <v>0.7324430989470323</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8163082661329166</v>
+        <v>0.8124584279358983</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>576</v>
@@ -10703,19 +10703,19 @@
         <v>737451</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>704517</v>
+        <v>702542</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>768647</v>
+        <v>768060</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7564071824007758</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7226270212146114</v>
+        <v>0.7206011115855229</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7884051505341719</v>
+        <v>0.7878033728942883</v>
       </c>
     </row>
     <row r="13">
@@ -10807,19 +10807,19 @@
         <v>4069</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9940</v>
+        <v>9959</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.006593103041011913</v>
+        <v>0.006593103041011915</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001836790622963386</v>
+        <v>0.001824308464254767</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01610501490633171</v>
+        <v>0.01613641912031129</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -10828,19 +10828,19 @@
         <v>4482</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1550</v>
+        <v>1532</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9127</v>
+        <v>9224</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.007266989191904649</v>
+        <v>0.007266989191904647</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002512890230863795</v>
+        <v>0.002484024441870267</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0147968274211424</v>
+        <v>0.01495458443406779</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -10849,19 +10849,19 @@
         <v>8552</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4391</v>
+        <v>4303</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15411</v>
+        <v>15820</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006929951700730899</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003557959523230255</v>
+        <v>0.003487071858643969</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01248864231137883</v>
+        <v>0.012819865174003</v>
       </c>
     </row>
     <row r="15">
@@ -10878,19 +10878,19 @@
         <v>50741</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>38787</v>
+        <v>37237</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>67080</v>
+        <v>66903</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.08221531509782302</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06284565167141065</v>
+        <v>0.06033419884024405</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1086895591369872</v>
+        <v>0.1084024093071261</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>37</v>
@@ -10899,19 +10899,19 @@
         <v>28152</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>20389</v>
+        <v>20431</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>37880</v>
+        <v>38367</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.04564083950317296</v>
+        <v>0.04564083950317295</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03305439832099238</v>
+        <v>0.0331232863440327</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06141146540623801</v>
+        <v>0.06220002096721685</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>82</v>
@@ -10920,19 +10920,19 @@
         <v>78894</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>63353</v>
+        <v>62556</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>97205</v>
+        <v>97326</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06393320161669341</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05133928119184966</v>
+        <v>0.05069339392414032</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07877234625468263</v>
+        <v>0.07887014798360112</v>
       </c>
     </row>
     <row r="16">
@@ -10949,19 +10949,19 @@
         <v>78650</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63044</v>
+        <v>63388</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>96378</v>
+        <v>97374</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1274356046011965</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.102149185352566</v>
+        <v>0.1027079605190073</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1561609305562532</v>
+        <v>0.1577745488703352</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>127</v>
@@ -10970,19 +10970,19 @@
         <v>85366</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>72311</v>
+        <v>71688</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>101348</v>
+        <v>99231</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1383953708436841</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1172309659342842</v>
+        <v>0.1162202057660272</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1643062423961684</v>
+        <v>0.1608732108470662</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>200</v>
@@ -10991,19 +10991,19 @@
         <v>164016</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>141423</v>
+        <v>139904</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>185542</v>
+        <v>184275</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1329139521896202</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1146053166885981</v>
+        <v>0.11337473981625</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1503581937920491</v>
+        <v>0.1493315826646253</v>
       </c>
     </row>
     <row r="17">
@@ -11020,19 +11020,19 @@
         <v>483712</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>461173</v>
+        <v>463271</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>502256</v>
+        <v>502508</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7837559772599686</v>
+        <v>0.7837559772599687</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7472353042804687</v>
+        <v>0.7506343521297318</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8138019152175348</v>
+        <v>0.8142109752034093</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>669</v>
@@ -11041,19 +11041,19 @@
         <v>498825</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>482751</v>
+        <v>482284</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>515221</v>
+        <v>515431</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8086968004612385</v>
+        <v>0.8086968004612383</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.782637346088585</v>
+        <v>0.7818804180034173</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8352779601474141</v>
+        <v>0.8356179663300614</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1090</v>
@@ -11062,19 +11062,19 @@
         <v>982538</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>955053</v>
+        <v>955895</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1007580</v>
+        <v>1009219</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7962228944929555</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7739493718550529</v>
+        <v>0.7746316977342969</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8165164449362013</v>
+        <v>0.8178441343575089</v>
       </c>
     </row>
     <row r="18">
@@ -11166,19 +11166,19 @@
         <v>8534</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3546</v>
+        <v>3958</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16115</v>
+        <v>16424</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01227906198796034</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005101931770293255</v>
+        <v>0.005695332548213924</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02318677879208344</v>
+        <v>0.02363217204020081</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -11187,19 +11187,19 @@
         <v>7906</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4288</v>
+        <v>4395</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13578</v>
+        <v>13280</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01077245677326811</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005843373530033003</v>
+        <v>0.005988924572954301</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01850106167644225</v>
+        <v>0.01809451588126354</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -11208,19 +11208,19 @@
         <v>16440</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10193</v>
+        <v>10127</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25076</v>
+        <v>25948</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01150524500810236</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007133398609978919</v>
+        <v>0.007087202701012333</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01754929741775883</v>
+        <v>0.01815954109851309</v>
       </c>
     </row>
     <row r="20">
@@ -11237,19 +11237,19 @@
         <v>32873</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22717</v>
+        <v>23333</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>46092</v>
+        <v>45210</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04730024824436035</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03268661731865146</v>
+        <v>0.03357245633511061</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06631980666265759</v>
+        <v>0.06505117649189918</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>67</v>
@@ -11258,19 +11258,19 @@
         <v>41168</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>33277</v>
+        <v>31603</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>52554</v>
+        <v>50471</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.05609468958379647</v>
+        <v>0.05609468958379645</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04534190849058394</v>
+        <v>0.04306195184838123</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07160920098763643</v>
+        <v>0.06877040649040628</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>101</v>
@@ -11279,19 +11279,19 @@
         <v>74042</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>60076</v>
+        <v>60652</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>88674</v>
+        <v>89109</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0518172165718666</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04204357519707275</v>
+        <v>0.04244681335627278</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06205768451908368</v>
+        <v>0.06236177532660631</v>
       </c>
     </row>
     <row r="21">
@@ -11308,19 +11308,19 @@
         <v>105301</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>87519</v>
+        <v>87262</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>126856</v>
+        <v>125051</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1515130312651215</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1259279981681395</v>
+        <v>0.1255583025744449</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.182527824807762</v>
+        <v>0.1799313434889152</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>177</v>
@@ -11329,19 +11329,19 @@
         <v>101927</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>88057</v>
+        <v>88339</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>116996</v>
+        <v>116319</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1388831350753557</v>
+        <v>0.1388831350753556</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1199841824467202</v>
+        <v>0.120367944130798</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1594158648406357</v>
+        <v>0.15849277158656</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>282</v>
@@ -11350,19 +11350,19 @@
         <v>207228</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>186022</v>
+        <v>184750</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>231306</v>
+        <v>231170</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1450261108494897</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1301852873403866</v>
+        <v>0.1292949356972597</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1618769178954634</v>
+        <v>0.1617817690390358</v>
       </c>
     </row>
     <row r="22">
@@ -11379,19 +11379,19 @@
         <v>548287</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>524378</v>
+        <v>525912</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>568827</v>
+        <v>568721</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7889076585025578</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7545066362424102</v>
+        <v>0.7567139092051572</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8184625157354793</v>
+        <v>0.8183091760583594</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>881</v>
@@ -11400,19 +11400,19 @@
         <v>582905</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>566126</v>
+        <v>565129</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>599562</v>
+        <v>597836</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.79424971856758</v>
+        <v>0.7942497185675799</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7713861789699796</v>
+        <v>0.7700285592926946</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8169460345941714</v>
+        <v>0.8145935823975958</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1395</v>
@@ -11421,19 +11421,19 @@
         <v>1131192</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1102194</v>
+        <v>1102530</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1156504</v>
+        <v>1158490</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7916514275705413</v>
+        <v>0.7916514275705414</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7713574688542346</v>
+        <v>0.7715924611439284</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8093655290740654</v>
+        <v>0.8107554141200406</v>
       </c>
     </row>
     <row r="23">
@@ -11525,19 +11525,19 @@
         <v>9214</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4480</v>
+        <v>5092</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16092</v>
+        <v>16860</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01514838414713033</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.007364697238595694</v>
+        <v>0.008371693497989073</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02645587769928419</v>
+        <v>0.02771761202038596</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -11546,19 +11546,19 @@
         <v>9708</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5786</v>
+        <v>5634</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16150</v>
+        <v>15926</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01599718887232015</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009534997874737768</v>
+        <v>0.00928446914528192</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02661339184218585</v>
+        <v>0.02624517297669424</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -11567,19 +11567,19 @@
         <v>18922</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>12876</v>
+        <v>12962</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>27418</v>
+        <v>28175</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.01557228401905624</v>
+        <v>0.01557228401905623</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01059681378284964</v>
+        <v>0.01066777103265198</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02256461653292089</v>
+        <v>0.02318756854385855</v>
       </c>
     </row>
     <row r="25">
@@ -11596,19 +11596,19 @@
         <v>34956</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25375</v>
+        <v>25867</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>47232</v>
+        <v>48142</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.0574681513883105</v>
+        <v>0.05746815138831049</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04171655884705749</v>
+        <v>0.04252652763123405</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0776495274535349</v>
+        <v>0.07914638887769976</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>52</v>
@@ -11617,19 +11617,19 @@
         <v>29620</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22057</v>
+        <v>21985</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37762</v>
+        <v>37630</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04881060789266924</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03634823364628288</v>
+        <v>0.03622865846421328</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0622293867097654</v>
+        <v>0.06201092160491573</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>91</v>
@@ -11638,19 +11638,19 @@
         <v>64576</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>52255</v>
+        <v>51919</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>79745</v>
+        <v>80017</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.05314450488861111</v>
+        <v>0.0531445048886111</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0430049255299091</v>
+        <v>0.04272865715814367</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06562891412056034</v>
+        <v>0.0658526303159622</v>
       </c>
     </row>
     <row r="26">
@@ -11667,19 +11667,19 @@
         <v>89065</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>74638</v>
+        <v>73371</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>106029</v>
+        <v>106942</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.146423886626456</v>
+        <v>0.1464238866264559</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1227065868141362</v>
+        <v>0.1206229575984596</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1743140545062357</v>
+        <v>0.1758146027588552</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>92</v>
@@ -11688,19 +11688,19 @@
         <v>51364</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>42369</v>
+        <v>41506</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>63448</v>
+        <v>62020</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08464309048569275</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06982083417659284</v>
+        <v>0.06839848567081493</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1045562529294675</v>
+        <v>0.102203288278287</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>191</v>
@@ -11709,19 +11709,19 @@
         <v>140428</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>121890</v>
+        <v>121708</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>160823</v>
+        <v>160389</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1155700626615939</v>
+        <v>0.1155700626615938</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1003130564115704</v>
+        <v>0.1001633336454225</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1323546845133009</v>
+        <v>0.1319971104045145</v>
       </c>
     </row>
     <row r="27">
@@ -11738,19 +11738,19 @@
         <v>475031</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>453418</v>
+        <v>454460</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>493608</v>
+        <v>492086</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7809595778381031</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.745427535760081</v>
+        <v>0.7471406120810196</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8115002064759415</v>
+        <v>0.8089978688994589</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>840</v>
@@ -11759,19 +11759,19 @@
         <v>516136</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>502849</v>
+        <v>502483</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>530139</v>
+        <v>529755</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.8505491127493178</v>
+        <v>0.8505491127493179</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8286529447389499</v>
+        <v>0.8280502899868073</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8736243538828609</v>
+        <v>0.8729925473249737</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1353</v>
@@ -11780,19 +11780,19 @@
         <v>991167</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>968302</v>
+        <v>968651</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1016554</v>
+        <v>1012593</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.8157131484307389</v>
+        <v>0.8157131484307387</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7968952919689698</v>
+        <v>0.7971822471095896</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.836605877777437</v>
+        <v>0.8333460127420561</v>
       </c>
     </row>
     <row r="28">
@@ -11884,19 +11884,19 @@
         <v>5596</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2765</v>
+        <v>2811</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10433</v>
+        <v>10090</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01374789444826508</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00679264159802392</v>
+        <v>0.006904436067781688</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02562911712044199</v>
+        <v>0.02478684191090468</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -11905,19 +11905,19 @@
         <v>1655</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4433</v>
+        <v>4443</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.003779009351775595</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0009864844028277752</v>
+        <v>0.000992779672799627</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0101214551861176</v>
+        <v>0.01014314902227405</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>12</v>
@@ -11926,19 +11926,19 @@
         <v>7252</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3852</v>
+        <v>3563</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12858</v>
+        <v>12087</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.008581032231248373</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004558068481778899</v>
+        <v>0.004216447532042588</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01521463233960384</v>
+        <v>0.01430277294894357</v>
       </c>
     </row>
     <row r="30">
@@ -11955,19 +11955,19 @@
         <v>16502</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10437</v>
+        <v>9962</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>25367</v>
+        <v>23888</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04053692358387077</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02563812017921871</v>
+        <v>0.02447269395304875</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06231441667490837</v>
+        <v>0.0586806997700193</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>22</v>
@@ -11976,19 +11976,19 @@
         <v>11201</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7119</v>
+        <v>7239</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>16204</v>
+        <v>16497</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02557340374300136</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01625246421411769</v>
+        <v>0.01652683704182752</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0369942984914987</v>
+        <v>0.03766304007225586</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>43</v>
@@ -11997,19 +11997,19 @@
         <v>27703</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>19959</v>
+        <v>19844</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>37325</v>
+        <v>36911</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03278134765426214</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02361748275192283</v>
+        <v>0.02348152739509573</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04416747244237399</v>
+        <v>0.04367671278863171</v>
       </c>
     </row>
     <row r="31">
@@ -12026,19 +12026,19 @@
         <v>24513</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>17401</v>
+        <v>17088</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>34421</v>
+        <v>33613</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06021652169654477</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04274556069039722</v>
+        <v>0.04197736511109698</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08455489896942715</v>
+        <v>0.08257191884946261</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>62</v>
@@ -12047,19 +12047,19 @@
         <v>33450</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>25806</v>
+        <v>26070</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>42225</v>
+        <v>42112</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07636888760831</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05891585947775786</v>
+        <v>0.05952019075312433</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09640346872341266</v>
+        <v>0.09614336195228575</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>95</v>
@@ -12068,19 +12068,19 @@
         <v>57963</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>47470</v>
+        <v>47795</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>70089</v>
+        <v>70778</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06858827524141384</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05617160548667502</v>
+        <v>0.05655588376649959</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0829371312998976</v>
+        <v>0.08375237444874639</v>
       </c>
     </row>
     <row r="32">
@@ -12097,19 +12097,19 @@
         <v>360469</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>347966</v>
+        <v>348545</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>371260</v>
+        <v>370471</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8854986602713193</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8547860333032337</v>
+        <v>0.8562084978267542</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9120076959844249</v>
+        <v>0.910068381322001</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>738</v>
@@ -12118,19 +12118,19 @@
         <v>391701</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>382108</v>
+        <v>381267</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>400376</v>
+        <v>399844</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8942786992969131</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8723777653426776</v>
+        <v>0.8704576904261072</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9140836110688725</v>
+        <v>0.9128692709813294</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1245</v>
@@ -12139,19 +12139,19 @@
         <v>752170</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>735650</v>
+        <v>736447</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>765191</v>
+        <v>765918</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8900493448730755</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8705008096874555</v>
+        <v>0.8714441632164137</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9054574003265188</v>
+        <v>0.9063180369439531</v>
       </c>
     </row>
     <row r="33">
@@ -12243,19 +12243,19 @@
         <v>1743</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4750</v>
+        <v>4674</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.005656246660156267</v>
+        <v>0.005656246660156268</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.001809691749230278</v>
+        <v>0.001797378081326842</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01541394207096859</v>
+        <v>0.01516435140412328</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -12267,7 +12267,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4177</v>
+        <v>3817</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.00146694474855136</v>
@@ -12276,7 +12276,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.009047395352494539</v>
+        <v>0.008269433604624669</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -12285,19 +12285,19 @@
         <v>2420</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5928</v>
+        <v>6036</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.003144102570845864</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0007877976905401182</v>
+        <v>0.0007787580122968206</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.007700104646323422</v>
+        <v>0.007840829885045529</v>
       </c>
     </row>
     <row r="35">
@@ -12317,16 +12317,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5822</v>
+        <v>5319</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.005055937083905913</v>
+        <v>0.005055937083905914</v>
       </c>
       <c r="H35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01889060549921106</v>
+        <v>0.01725882602746402</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -12335,19 +12335,19 @@
         <v>2462</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6032</v>
+        <v>6134</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.005333348453986496</v>
+        <v>0.005333348453986495</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.001344374094519719</v>
+        <v>0.001320993830173747</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01306789116405592</v>
+        <v>0.01328683907747996</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>6</v>
@@ -12356,19 +12356,19 @@
         <v>4020</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1484</v>
+        <v>1426</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>8181</v>
+        <v>7885</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.005222288745438099</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001928027926596848</v>
+        <v>0.001852166191935407</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0106265981327745</v>
+        <v>0.01024315051134795</v>
       </c>
     </row>
     <row r="36">
@@ -12385,19 +12385,19 @@
         <v>6732</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3428</v>
+        <v>3448</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12715</v>
+        <v>12621</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.02184314527601468</v>
+        <v>0.02184314527601469</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01112330053296072</v>
+        <v>0.01118951396155239</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0412579865839801</v>
+        <v>0.04095088113667222</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>20</v>
@@ -12406,19 +12406,19 @@
         <v>11600</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>7125</v>
+        <v>7330</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>17695</v>
+        <v>17848</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02512818525891559</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01543410842083177</v>
+        <v>0.01587835841487398</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03833096906241174</v>
+        <v>0.03866308973038683</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>30</v>
@@ -12427,19 +12427,19 @@
         <v>18332</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>12816</v>
+        <v>12316</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>25522</v>
+        <v>26054</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02381304239737813</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01664865376541565</v>
+        <v>0.01599810716093794</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03315356516660162</v>
+        <v>0.03384407790868907</v>
       </c>
     </row>
     <row r="37">
@@ -12456,19 +12456,19 @@
         <v>298157</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>292072</v>
+        <v>291579</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>302532</v>
+        <v>302385</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.9674446709799231</v>
+        <v>0.9674446709799234</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9477010927733162</v>
+        <v>0.9461023143594541</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9816402136682122</v>
+        <v>0.9811642721420533</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>851</v>
@@ -12477,19 +12477,19 @@
         <v>446886</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>440761</v>
+        <v>440291</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>452232</v>
+        <v>451895</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.9680715215385466</v>
+        <v>0.9680715215385465</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9548023210620917</v>
+        <v>0.9537847428071051</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9796533390637893</v>
+        <v>0.9789229760024819</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1292</v>
@@ -12498,19 +12498,19 @@
         <v>745042</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>736098</v>
+        <v>736726</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>751661</v>
+        <v>752764</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.9678205662863379</v>
+        <v>0.9678205662863378</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9562021879603152</v>
+        <v>0.9570183983022933</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9764192735905998</v>
+        <v>0.977851162081192</v>
       </c>
     </row>
     <row r="38">
@@ -12602,19 +12602,19 @@
         <v>44041</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>30840</v>
+        <v>31994</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>62374</v>
+        <v>63515</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01251017219865751</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.008760470243782778</v>
+        <v>0.009088318626246785</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01771784482789876</v>
+        <v>0.01804200140605195</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>52</v>
@@ -12623,19 +12623,19 @@
         <v>45244</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>33638</v>
+        <v>32952</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>62109</v>
+        <v>61183</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01218307542602174</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.00905789238013352</v>
+        <v>0.008873120247814505</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.01672435207995141</v>
+        <v>0.01647507101652805</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>94</v>
@@ -12644,19 +12644,19 @@
         <v>89284</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>71158</v>
+        <v>71284</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>110223</v>
+        <v>112666</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01234225421716854</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.009836540506438719</v>
+        <v>0.009854020257143591</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.0152367580853868</v>
+        <v>0.01557440885275614</v>
       </c>
     </row>
     <row r="40">
@@ -12673,19 +12673,19 @@
         <v>229830</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>196037</v>
+        <v>195903</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>268708</v>
+        <v>266971</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.06528546875972069</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05568619460341546</v>
+        <v>0.05564814380466781</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07632920480931329</v>
+        <v>0.07583567740042352</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>222</v>
@@ -12694,19 +12694,19 @@
         <v>163642</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>141386</v>
+        <v>143687</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>187705</v>
+        <v>188852</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.04406499846116587</v>
+        <v>0.04406499846116588</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.03807199534996909</v>
+        <v>0.03869142372169533</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.05054449384453518</v>
+        <v>0.05085345089184139</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>412</v>
@@ -12715,19 +12715,19 @@
         <v>393473</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>353165</v>
+        <v>352549</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>436196</v>
+        <v>437425</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.05439175522636294</v>
+        <v>0.05439175522636295</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.04881983116614431</v>
+        <v>0.04873465953683156</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.06029764795105196</v>
+        <v>0.0604674762277574</v>
       </c>
     </row>
     <row r="41">
@@ -12744,19 +12744,19 @@
         <v>448257</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>405182</v>
+        <v>404094</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>497710</v>
+        <v>498965</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.127331890762004</v>
+        <v>0.1273318907620039</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1150958673187055</v>
+        <v>0.1147869336929854</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1413794261093503</v>
+        <v>0.1417358428683006</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>568</v>
@@ -12765,19 +12765,19 @@
         <v>396049</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>365037</v>
+        <v>362670</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>435674</v>
+        <v>431631</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1066465082914834</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.09829580784995839</v>
+        <v>0.09765821947806985</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1173165916861757</v>
+        <v>0.1162278512606421</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>957</v>
@@ -12786,19 +12786,19 @@
         <v>844306</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>787145</v>
+        <v>790607</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>899781</v>
+        <v>902544</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1167128692327244</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1088111142957792</v>
+        <v>0.1092896603436127</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1243813548749706</v>
+        <v>0.1247634126917665</v>
       </c>
     </row>
     <row r="42">
@@ -12815,19 +12815,19 @@
         <v>2798258</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2740952</v>
+        <v>2740866</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2853380</v>
+        <v>2853423</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.7948724682796178</v>
+        <v>0.7948724682796179</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.7785940525383521</v>
+        <v>0.7785697657706304</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.8105303201379309</v>
+        <v>0.810542631308693</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>4496</v>
@@ -12836,19 +12836,19 @@
         <v>3108726</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3065726</v>
+        <v>3063591</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>3144968</v>
+        <v>3147582</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.8371054178213291</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.8255265757242848</v>
+        <v>0.8249517037377305</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.8468644919933154</v>
+        <v>0.8475684418669761</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>7241</v>
@@ -12857,19 +12857,19 @@
         <v>5906984</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>5834614</v>
+        <v>5836215</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>5973966</v>
+        <v>5972481</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.8165531213237439</v>
+        <v>0.8165531213237441</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.806549063579981</v>
+        <v>0.8067703589312312</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.8258124881681487</v>
+        <v>0.8256071200728048</v>
       </c>
     </row>
     <row r="43">
